--- a/data/floor_plans_raw.xlsx
+++ b/data/floor_plans_raw.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitysystemnh-my.sharepoint.com/personal/sbs44_usnh_edu/Documents/School/Dissertation/Sebastian Rowan Dissertation Research/Paper 2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\building_impact_model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="611" documentId="8_{0D0893F7-3359-4108-B49C-07B47CF09BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76E1E4D6-4F2B-43DD-8FE2-7612C214DA1A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C566238-F53F-4B28-82E9-7F3BE666CCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="floor_plans" sheetId="9" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">floor_plans!$A$1:$AG$554</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">floor_plans!$A$1:$AF$554</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -3926,7 +3926,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="670">
   <si>
     <t>type</t>
   </si>
@@ -5599,24 +5599,12 @@
     <t>51800HZ</t>
   </si>
   <si>
-    <t>reviewer</t>
-  </si>
-  <si>
-    <t>sebastian</t>
-  </si>
-  <si>
     <t>11797HZ</t>
   </si>
   <si>
-    <t>Abbie</t>
-  </si>
-  <si>
     <t>5156MM</t>
   </si>
   <si>
-    <t>Adarsh</t>
-  </si>
-  <si>
     <t>11700HZ</t>
   </si>
   <si>
@@ -5924,9 +5912,6 @@
   </si>
   <si>
     <t>51802HZ-Bonus</t>
-  </si>
-  <si>
-    <t>Ryan</t>
   </si>
   <si>
     <t>11778HZ-Bonus</t>
@@ -7716,11 +7701,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AG554"/>
+  <dimension ref="A1:AF554"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A482" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF485" sqref="AF485"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC1" activeCellId="1" sqref="F1:F1048576 AC1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7749,11 +7734,10 @@
     <col min="29" max="29" width="8.875" style="1"/>
     <col min="30" max="30" width="16.25" style="1" customWidth="1"/>
     <col min="31" max="32" width="8.75" style="1" customWidth="1"/>
-    <col min="33" max="33" width="9.625" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="8.875" style="1"/>
+    <col min="33" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -7850,13 +7834,10 @@
       <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
-        <v>557</v>
-      </c>
     </row>
-    <row r="2" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>32</v>
@@ -7948,11 +7929,8 @@
       <c r="AF2" s="1">
         <v>2</v>
       </c>
-      <c r="AG2" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="3" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>291</v>
       </c>
@@ -8035,6 +8013,10 @@
       <c r="AB3" s="1">
         <v>21.5</v>
       </c>
+      <c r="AC3" s="1">
+        <f>800+(1.29*F3)</f>
+        <v>2606</v>
+      </c>
       <c r="AD3" s="1" t="s">
         <v>34</v>
       </c>
@@ -8044,11 +8026,8 @@
       <c r="AF3" s="1">
         <v>2</v>
       </c>
-      <c r="AG3" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="4" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>313</v>
       </c>
@@ -8142,11 +8121,8 @@
       <c r="AF4" s="1">
         <v>2</v>
       </c>
-      <c r="AG4" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="5" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>494</v>
       </c>
@@ -8231,6 +8207,10 @@
       <c r="AB5" s="1">
         <v>34</v>
       </c>
+      <c r="AC5" s="1">
+        <f t="shared" ref="AC5:AC6" si="0">800+(1.29*F5)</f>
+        <v>2606</v>
+      </c>
       <c r="AD5" s="1" t="s">
         <v>34</v>
       </c>
@@ -8240,11 +8220,8 @@
       <c r="AF5" s="1">
         <v>2</v>
       </c>
-      <c r="AG5" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="6" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>497</v>
       </c>
@@ -8329,6 +8306,10 @@
       <c r="AB6" s="1">
         <v>22.3</v>
       </c>
+      <c r="AC6" s="1">
+        <f t="shared" si="0"/>
+        <v>2735</v>
+      </c>
       <c r="AD6" s="1" t="s">
         <v>34</v>
       </c>
@@ -8338,13 +8319,10 @@
       <c r="AF6" s="1">
         <v>2</v>
       </c>
-      <c r="AG6" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="7" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>32</v>
@@ -8436,13 +8414,10 @@
       <c r="AF7" s="1">
         <v>2</v>
       </c>
-      <c r="AG7" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="8" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>32</v>
@@ -8534,11 +8509,8 @@
       <c r="AF8" s="1">
         <v>2</v>
       </c>
-      <c r="AG8" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="9" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>327</v>
       </c>
@@ -8632,13 +8604,10 @@
       <c r="AF9" s="1">
         <v>2</v>
       </c>
-      <c r="AG9" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="10" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>32</v>
@@ -8730,11 +8699,8 @@
       <c r="AF10" s="1">
         <v>2</v>
       </c>
-      <c r="AG10" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="11" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>415</v>
       </c>
@@ -8828,11 +8794,8 @@
       <c r="AF11" s="1">
         <v>2</v>
       </c>
-      <c r="AG11" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="12" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>421</v>
       </c>
@@ -8926,11 +8889,8 @@
       <c r="AF12" s="1">
         <v>2</v>
       </c>
-      <c r="AG12" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="13" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>526</v>
       </c>
@@ -9024,11 +8984,8 @@
       <c r="AF13" s="1">
         <v>2</v>
       </c>
-      <c r="AG13" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="14" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>430</v>
       </c>
@@ -9122,11 +9079,8 @@
       <c r="AF14" s="1">
         <v>2</v>
       </c>
-      <c r="AG14" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="15" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>533</v>
       </c>
@@ -9220,11 +9174,8 @@
       <c r="AF15" s="1">
         <v>2</v>
       </c>
-      <c r="AG15" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="16" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>506</v>
       </c>
@@ -9309,6 +9260,10 @@
       <c r="AB16" s="1">
         <v>22.5</v>
       </c>
+      <c r="AC16" s="1">
+        <f>800+(1.29*F16)</f>
+        <v>2864</v>
+      </c>
       <c r="AD16" s="1" t="s">
         <v>34</v>
       </c>
@@ -9318,13 +9273,10 @@
       <c r="AF16" s="1">
         <v>2</v>
       </c>
-      <c r="AG16" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="17" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>32</v>
@@ -9416,11 +9368,8 @@
       <c r="AF17" s="1">
         <v>2</v>
       </c>
-      <c r="AG17" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="18" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>328</v>
       </c>
@@ -9514,11 +9463,8 @@
       <c r="AF18" s="1">
         <v>2</v>
       </c>
-      <c r="AG18" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="19" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>241</v>
       </c>
@@ -9600,6 +9546,10 @@
       <c r="AB19" s="1">
         <v>20.2</v>
       </c>
+      <c r="AC19" s="1">
+        <f t="shared" ref="AC19:AC20" si="1">800+(1.29*F19)</f>
+        <v>2348</v>
+      </c>
       <c r="AD19" s="1" t="s">
         <v>35</v>
       </c>
@@ -9609,11 +9559,8 @@
       <c r="AF19" s="1">
         <v>1</v>
       </c>
-      <c r="AG19" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="20" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>279</v>
       </c>
@@ -9696,6 +9643,10 @@
       <c r="AB20" s="1">
         <v>20.167000000000002</v>
       </c>
+      <c r="AC20" s="1">
+        <f t="shared" si="1"/>
+        <v>2541.5</v>
+      </c>
       <c r="AD20" s="1" t="s">
         <v>35</v>
       </c>
@@ -9705,11 +9656,8 @@
       <c r="AF20" s="1">
         <v>1</v>
       </c>
-      <c r="AG20" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="21" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>317</v>
       </c>
@@ -9803,11 +9751,8 @@
       <c r="AF21" s="1">
         <v>2</v>
       </c>
-      <c r="AG21" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="22" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>507</v>
       </c>
@@ -9892,6 +9837,10 @@
       <c r="AB22" s="1">
         <v>21</v>
       </c>
+      <c r="AC22" s="1">
+        <f t="shared" ref="AC22:AC26" si="2">800+(1.29*F22)</f>
+        <v>2864</v>
+      </c>
       <c r="AD22" s="1" t="s">
         <v>34</v>
       </c>
@@ -9901,11 +9850,8 @@
       <c r="AF22" s="1">
         <v>2</v>
       </c>
-      <c r="AG22" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="23" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>207</v>
       </c>
@@ -9987,6 +9933,10 @@
       <c r="AB23" s="1">
         <v>17.5</v>
       </c>
+      <c r="AC23" s="1">
+        <f t="shared" si="2"/>
+        <v>1896.5</v>
+      </c>
       <c r="AD23" s="1" t="s">
         <v>33</v>
       </c>
@@ -9996,11 +9946,8 @@
       <c r="AF23" s="1">
         <v>0</v>
       </c>
-      <c r="AG23" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="24" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>225</v>
       </c>
@@ -10082,6 +10029,10 @@
       <c r="AB24" s="1">
         <v>17.5</v>
       </c>
+      <c r="AC24" s="1">
+        <f t="shared" si="2"/>
+        <v>1961</v>
+      </c>
       <c r="AD24" s="1" t="s">
         <v>35</v>
       </c>
@@ -10091,11 +10042,8 @@
       <c r="AF24" s="1">
         <v>1</v>
       </c>
-      <c r="AG24" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>218</v>
       </c>
@@ -10177,6 +10125,10 @@
       <c r="AB25" s="1">
         <v>24.5</v>
       </c>
+      <c r="AC25" s="1">
+        <f t="shared" si="2"/>
+        <v>1961</v>
+      </c>
       <c r="AD25" s="1" t="s">
         <v>35</v>
       </c>
@@ -10186,11 +10138,8 @@
       <c r="AF25" s="1">
         <v>1</v>
       </c>
-      <c r="AG25" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="26" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>223</v>
       </c>
@@ -10272,6 +10221,10 @@
       <c r="AB26" s="1">
         <v>24.5</v>
       </c>
+      <c r="AC26" s="1">
+        <f t="shared" si="2"/>
+        <v>1961</v>
+      </c>
       <c r="AD26" s="1" t="s">
         <v>33</v>
       </c>
@@ -10281,13 +10234,10 @@
       <c r="AF26" s="1">
         <v>0</v>
       </c>
-      <c r="AG26" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="27" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>32</v>
@@ -10379,11 +10329,8 @@
       <c r="AF27" s="1">
         <v>2</v>
       </c>
-      <c r="AG27" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="28" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>340</v>
       </c>
@@ -10477,11 +10424,8 @@
       <c r="AF28" s="1">
         <v>2</v>
       </c>
-      <c r="AG28" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="29" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>45</v>
       </c>
@@ -10575,11 +10519,8 @@
       <c r="AF29" s="1">
         <v>2</v>
       </c>
-      <c r="AG29" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="30" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
@@ -10673,11 +10614,8 @@
       <c r="AF30" s="1">
         <v>2</v>
       </c>
-      <c r="AG30" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="31" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>402</v>
       </c>
@@ -10771,11 +10709,8 @@
       <c r="AF31" s="1">
         <v>0</v>
       </c>
-      <c r="AG31" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="32" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>116</v>
       </c>
@@ -10869,11 +10804,8 @@
       <c r="AF32" s="1">
         <v>0</v>
       </c>
-      <c r="AG32" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="33" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>88</v>
       </c>
@@ -10967,11 +10899,8 @@
       <c r="AF33" s="1">
         <v>2</v>
       </c>
-      <c r="AG33" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="34" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>444</v>
       </c>
@@ -11065,11 +10994,8 @@
       <c r="AF34" s="1">
         <v>2</v>
       </c>
-      <c r="AG34" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="35" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>292</v>
       </c>
@@ -11152,6 +11078,10 @@
       <c r="AB35" s="1">
         <v>18</v>
       </c>
+      <c r="AC35" s="1">
+        <f t="shared" ref="AC35:AC40" si="3">800+(1.29*F35)</f>
+        <v>2606</v>
+      </c>
       <c r="AD35" s="1" t="s">
         <v>34</v>
       </c>
@@ -11161,11 +11091,8 @@
       <c r="AF35" s="1">
         <v>2</v>
       </c>
-      <c r="AG35" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="36" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>498</v>
       </c>
@@ -11250,6 +11177,10 @@
       <c r="AB36" s="1">
         <v>22.5</v>
       </c>
+      <c r="AC36" s="1">
+        <f t="shared" si="3"/>
+        <v>2735</v>
+      </c>
       <c r="AD36" s="1" t="s">
         <v>34</v>
       </c>
@@ -11259,11 +11190,8 @@
       <c r="AF36" s="1">
         <v>2</v>
       </c>
-      <c r="AG36" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="37" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>247</v>
       </c>
@@ -11346,6 +11274,10 @@
       <c r="AB37" s="1">
         <v>17.2</v>
       </c>
+      <c r="AC37" s="1">
+        <f t="shared" si="3"/>
+        <v>2348</v>
+      </c>
       <c r="AD37" s="1" t="s">
         <v>35</v>
       </c>
@@ -11355,11 +11287,8 @@
       <c r="AF37" s="1">
         <v>1</v>
       </c>
-      <c r="AG37" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="38" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>271</v>
       </c>
@@ -11442,6 +11371,10 @@
       <c r="AB38" s="1">
         <v>17</v>
       </c>
+      <c r="AC38" s="1">
+        <f t="shared" si="3"/>
+        <v>2412.5</v>
+      </c>
       <c r="AD38" s="1" t="s">
         <v>34</v>
       </c>
@@ -11451,11 +11384,8 @@
       <c r="AF38" s="1">
         <v>1</v>
       </c>
-      <c r="AG38" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="39" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>274</v>
       </c>
@@ -11538,6 +11468,10 @@
       <c r="AB39" s="1">
         <v>22</v>
       </c>
+      <c r="AC39" s="1">
+        <f t="shared" si="3"/>
+        <v>2477</v>
+      </c>
       <c r="AD39" s="1" t="s">
         <v>33</v>
       </c>
@@ -11547,11 +11481,8 @@
       <c r="AF39" s="1">
         <v>0</v>
       </c>
-      <c r="AG39" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="40" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>283</v>
       </c>
@@ -11634,6 +11565,10 @@
       <c r="AB40" s="1">
         <v>21.16667</v>
       </c>
+      <c r="AC40" s="1">
+        <f t="shared" si="3"/>
+        <v>2573.75</v>
+      </c>
       <c r="AD40" s="1" t="s">
         <v>33</v>
       </c>
@@ -11643,11 +11578,8 @@
       <c r="AF40" s="1">
         <v>0</v>
       </c>
-      <c r="AG40" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="41" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
@@ -11741,11 +11673,8 @@
       <c r="AF41" s="1">
         <v>2</v>
       </c>
-      <c r="AG41" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="42" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>137</v>
       </c>
@@ -11840,13 +11769,10 @@
       <c r="AF42" s="4">
         <v>2</v>
       </c>
-      <c r="AG42" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="43" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>32</v>
@@ -11939,11 +11865,8 @@
       <c r="AF43" s="4">
         <v>2</v>
       </c>
-      <c r="AG43" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="44" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>148</v>
       </c>
@@ -12038,13 +11961,10 @@
       <c r="AF44" s="4">
         <v>2</v>
       </c>
-      <c r="AG44" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="45" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>32</v>
@@ -12137,11 +12057,8 @@
       <c r="AF45" s="4">
         <v>2</v>
       </c>
-      <c r="AG45" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="46" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>161</v>
       </c>
@@ -12236,13 +12153,10 @@
       <c r="AF46" s="4">
         <v>2</v>
       </c>
-      <c r="AG46" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="47" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>32</v>
@@ -12335,11 +12249,8 @@
       <c r="AF47" s="4">
         <v>2</v>
       </c>
-      <c r="AG47" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="48" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>172</v>
       </c>
@@ -12434,13 +12345,10 @@
       <c r="AF48" s="4">
         <v>2</v>
       </c>
-      <c r="AG48" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="49" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>32</v>
@@ -12533,11 +12441,8 @@
       <c r="AF49" s="4">
         <v>2</v>
       </c>
-      <c r="AG49" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="50" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>516</v>
       </c>
@@ -12631,11 +12536,8 @@
       <c r="AF50" s="1">
         <v>2</v>
       </c>
-      <c r="AG50" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="51" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>466</v>
       </c>
@@ -12730,13 +12632,10 @@
       <c r="AF51" s="4">
         <v>2</v>
       </c>
-      <c r="AG51" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="52" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>32</v>
@@ -12829,11 +12728,8 @@
       <c r="AF52" s="4">
         <v>2</v>
       </c>
-      <c r="AG52" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="53" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>441</v>
       </c>
@@ -12927,11 +12823,8 @@
       <c r="AF53" s="1">
         <v>2</v>
       </c>
-      <c r="AG53" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="54" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>446</v>
       </c>
@@ -13025,13 +12918,10 @@
       <c r="AF54" s="1">
         <v>2</v>
       </c>
-      <c r="AG54" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="55" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>32</v>
@@ -13123,13 +13013,10 @@
       <c r="AF55" s="1">
         <v>2</v>
       </c>
-      <c r="AG55" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="56" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>32</v>
@@ -13221,11 +13108,8 @@
       <c r="AF56" s="1">
         <v>2</v>
       </c>
-      <c r="AG56" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="57" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>68</v>
       </c>
@@ -13319,11 +13203,8 @@
       <c r="AF57" s="1">
         <v>2</v>
       </c>
-      <c r="AG57" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="58" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>329</v>
       </c>
@@ -13417,11 +13298,8 @@
       <c r="AF58" s="1">
         <v>2</v>
       </c>
-      <c r="AG58" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="59" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>371</v>
       </c>
@@ -13515,11 +13393,8 @@
       <c r="AF59" s="1">
         <v>2</v>
       </c>
-      <c r="AG59" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="60" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>346</v>
       </c>
@@ -13613,11 +13488,8 @@
       <c r="AF60" s="1">
         <v>2</v>
       </c>
-      <c r="AG60" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="61" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>276</v>
       </c>
@@ -13700,6 +13572,10 @@
       <c r="AB61" s="1">
         <v>19.333300000000001</v>
       </c>
+      <c r="AC61" s="1">
+        <f>800+(1.29*F61)</f>
+        <v>2477</v>
+      </c>
       <c r="AD61" s="1" t="s">
         <v>34</v>
       </c>
@@ -13709,11 +13585,8 @@
       <c r="AF61" s="1">
         <v>2</v>
       </c>
-      <c r="AG61" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="62" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>318</v>
       </c>
@@ -13807,11 +13680,8 @@
       <c r="AF62" s="1">
         <v>2</v>
       </c>
-      <c r="AG62" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="63" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>353</v>
       </c>
@@ -13905,11 +13775,8 @@
       <c r="AF63" s="1">
         <v>2</v>
       </c>
-      <c r="AG63" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="64" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>499</v>
       </c>
@@ -13994,6 +13861,10 @@
       <c r="AB64" s="1">
         <v>20</v>
       </c>
+      <c r="AC64" s="1">
+        <f>800+(1.29*F64)</f>
+        <v>2735</v>
+      </c>
       <c r="AD64" s="1" t="s">
         <v>34</v>
       </c>
@@ -14003,13 +13874,10 @@
       <c r="AF64" s="1">
         <v>2</v>
       </c>
-      <c r="AG64" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="65" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>32</v>
@@ -14102,13 +13970,10 @@
       <c r="AF65" s="4">
         <v>2</v>
       </c>
-      <c r="AG65" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="66" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>32</v>
@@ -14201,11 +14066,8 @@
       <c r="AF66" s="4">
         <v>2</v>
       </c>
-      <c r="AG66" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="67" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>323</v>
       </c>
@@ -14299,11 +14161,8 @@
       <c r="AF67" s="1">
         <v>2</v>
       </c>
-      <c r="AG67" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="68" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>504</v>
       </c>
@@ -14388,6 +14247,10 @@
       <c r="AB68" s="1">
         <v>23</v>
       </c>
+      <c r="AC68" s="1">
+        <f t="shared" ref="AC68:AC70" si="4">800+(1.29*F68)</f>
+        <v>2799.5</v>
+      </c>
       <c r="AD68" s="1" t="s">
         <v>34</v>
       </c>
@@ -14397,11 +14260,8 @@
       <c r="AF68" s="1">
         <v>2</v>
       </c>
-      <c r="AG68" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="69" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>505</v>
       </c>
@@ -14486,6 +14346,10 @@
       <c r="AB69" s="1">
         <v>23.5</v>
       </c>
+      <c r="AC69" s="1">
+        <f t="shared" si="4"/>
+        <v>2831.75</v>
+      </c>
       <c r="AD69" s="1" t="s">
         <v>34</v>
       </c>
@@ -14495,11 +14359,8 @@
       <c r="AF69" s="1">
         <v>2</v>
       </c>
-      <c r="AG69" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="70" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>508</v>
       </c>
@@ -14584,6 +14445,10 @@
       <c r="AB70" s="1">
         <v>23.5</v>
       </c>
+      <c r="AC70" s="1">
+        <f t="shared" si="4"/>
+        <v>2864</v>
+      </c>
       <c r="AD70" s="1" t="s">
         <v>34</v>
       </c>
@@ -14593,13 +14458,10 @@
       <c r="AF70" s="1">
         <v>2</v>
       </c>
-      <c r="AG70" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="71" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>32</v>
@@ -14691,11 +14553,8 @@
       <c r="AF71" s="1">
         <v>2</v>
       </c>
-      <c r="AG71" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="72" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>48</v>
       </c>
@@ -14789,11 +14648,8 @@
       <c r="AF72" s="1">
         <v>2</v>
       </c>
-      <c r="AG72" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="73" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>51</v>
       </c>
@@ -14887,11 +14743,8 @@
       <c r="AF73" s="1">
         <v>2</v>
       </c>
-      <c r="AG73" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="74" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>53</v>
       </c>
@@ -14985,13 +14838,10 @@
       <c r="AF74" s="1">
         <v>2</v>
       </c>
-      <c r="AG74" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="75" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>32</v>
@@ -15083,11 +14933,8 @@
       <c r="AF75" s="1">
         <v>2</v>
       </c>
-      <c r="AG75" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="76" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>85</v>
       </c>
@@ -15181,11 +15028,8 @@
       <c r="AF76" s="1">
         <v>2</v>
       </c>
-      <c r="AG76" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="77" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>382</v>
       </c>
@@ -15279,11 +15123,8 @@
       <c r="AF77" s="1">
         <v>2</v>
       </c>
-      <c r="AG77" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="78" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>89</v>
       </c>
@@ -15377,11 +15218,8 @@
       <c r="AF78" s="1">
         <v>2</v>
       </c>
-      <c r="AG78" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="79" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>170</v>
       </c>
@@ -15475,11 +15313,8 @@
       <c r="AF79" s="1">
         <v>2</v>
       </c>
-      <c r="AG79" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="80" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>307</v>
       </c>
@@ -15563,6 +15398,10 @@
         <f>161/6</f>
         <v>26.833333333333332</v>
       </c>
+      <c r="AC80" s="1">
+        <f>800+(1.29*F80)</f>
+        <v>2893.67</v>
+      </c>
       <c r="AD80" s="1" t="s">
         <v>34</v>
       </c>
@@ -15572,13 +15411,10 @@
       <c r="AF80" s="1">
         <v>2</v>
       </c>
-      <c r="AG80" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="81" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>32</v>
@@ -15670,11 +15506,8 @@
       <c r="AF81" s="1">
         <v>2</v>
       </c>
-      <c r="AG81" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="82" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>339</v>
       </c>
@@ -15768,13 +15601,10 @@
       <c r="AF82" s="1">
         <v>2</v>
       </c>
-      <c r="AG82" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="83" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>32</v>
@@ -15866,11 +15696,8 @@
       <c r="AF83" s="1">
         <v>2</v>
       </c>
-      <c r="AG83" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="84" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>361</v>
       </c>
@@ -15964,11 +15791,8 @@
       <c r="AF84" s="1">
         <v>2</v>
       </c>
-      <c r="AG84" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="85" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>129</v>
       </c>
@@ -16062,11 +15886,8 @@
       <c r="AF85" s="1">
         <v>2</v>
       </c>
-      <c r="AG85" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="86" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>342</v>
       </c>
@@ -16160,11 +15981,8 @@
       <c r="AF86" s="1">
         <v>2</v>
       </c>
-      <c r="AG86" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="87" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>360</v>
       </c>
@@ -16258,11 +16076,8 @@
       <c r="AF87" s="1">
         <v>2</v>
       </c>
-      <c r="AG87" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="88" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>130</v>
       </c>
@@ -16357,13 +16172,10 @@
       <c r="AF88" s="4">
         <v>2</v>
       </c>
-      <c r="AG88" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="89" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>32</v>
@@ -16456,11 +16268,8 @@
       <c r="AF89" s="4">
         <v>2</v>
       </c>
-      <c r="AG89" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="90" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>362</v>
       </c>
@@ -16554,11 +16363,8 @@
       <c r="AF90" s="1">
         <v>2</v>
       </c>
-      <c r="AG90" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="91" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>72</v>
       </c>
@@ -16652,11 +16458,8 @@
       <c r="AF91" s="1">
         <v>2</v>
       </c>
-      <c r="AG91" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="92" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>54</v>
       </c>
@@ -16750,11 +16553,8 @@
       <c r="AF92" s="1">
         <v>2</v>
       </c>
-      <c r="AG92" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="93" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>128</v>
       </c>
@@ -16848,11 +16648,8 @@
       <c r="AF93" s="1">
         <v>2</v>
       </c>
-      <c r="AG93" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="94" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>349</v>
       </c>
@@ -16946,11 +16743,8 @@
       <c r="AF94" s="1">
         <v>2</v>
       </c>
-      <c r="AG94" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="95" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>101</v>
       </c>
@@ -17044,11 +16838,8 @@
       <c r="AF95" s="1">
         <v>2</v>
       </c>
-      <c r="AG95" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="96" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>144</v>
       </c>
@@ -17142,11 +16933,8 @@
       <c r="AF96" s="1">
         <v>2</v>
       </c>
-      <c r="AG96" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="97" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>348</v>
       </c>
@@ -17240,13 +17028,10 @@
       <c r="AF97" s="1">
         <v>2</v>
       </c>
-      <c r="AG97" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="98" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>32</v>
@@ -17338,11 +17123,8 @@
       <c r="AF98" s="1">
         <v>2</v>
       </c>
-      <c r="AG98" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="99" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>493</v>
       </c>
@@ -17427,6 +17209,10 @@
       <c r="AB99" s="1">
         <v>22.5</v>
       </c>
+      <c r="AC99" s="1">
+        <f>800+(1.29*F99)</f>
+        <v>2600.84</v>
+      </c>
       <c r="AD99" s="1" t="s">
         <v>35</v>
       </c>
@@ -17436,13 +17222,10 @@
       <c r="AF99" s="1">
         <v>2</v>
       </c>
-      <c r="AG99" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="100" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>32</v>
@@ -17534,13 +17317,10 @@
       <c r="AF100" s="1">
         <v>2</v>
       </c>
-      <c r="AG100" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="101" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>32</v>
@@ -17632,11 +17412,8 @@
       <c r="AF101" s="1">
         <v>2</v>
       </c>
-      <c r="AG101" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="102" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>44</v>
       </c>
@@ -17730,13 +17507,10 @@
       <c r="AF102" s="1">
         <v>2</v>
       </c>
-      <c r="AG102" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="103" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>32</v>
@@ -17828,11 +17602,8 @@
       <c r="AF103" s="1">
         <v>2</v>
       </c>
-      <c r="AG103" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="104" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>66</v>
       </c>
@@ -17926,11 +17697,8 @@
       <c r="AF104" s="1">
         <v>2</v>
       </c>
-      <c r="AG104" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="105" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>425</v>
       </c>
@@ -18024,11 +17792,8 @@
       <c r="AF105" s="1">
         <v>2</v>
       </c>
-      <c r="AG105" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="106" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>56</v>
       </c>
@@ -18122,11 +17887,8 @@
       <c r="AF106" s="1">
         <v>0</v>
       </c>
-      <c r="AG106" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="107" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>319</v>
       </c>
@@ -18220,13 +17982,10 @@
       <c r="AF107" s="1">
         <v>2</v>
       </c>
-      <c r="AG107" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="108" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>32</v>
@@ -18318,13 +18077,10 @@
       <c r="AF108" s="1">
         <v>2</v>
       </c>
-      <c r="AG108" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="109" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>32</v>
@@ -18416,11 +18172,8 @@
       <c r="AF109" s="1">
         <v>2</v>
       </c>
-      <c r="AG109" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="110" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>437</v>
       </c>
@@ -18514,11 +18267,8 @@
       <c r="AF110" s="1">
         <v>2</v>
       </c>
-      <c r="AG110" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="111" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>451</v>
       </c>
@@ -18605,6 +18355,10 @@
         <f>21+(9/12)</f>
         <v>21.75</v>
       </c>
+      <c r="AC111" s="1">
+        <f>800+(1.29*F111)</f>
+        <v>4161.74</v>
+      </c>
       <c r="AD111" s="1" t="s">
         <v>34</v>
       </c>
@@ -18614,11 +18368,8 @@
       <c r="AF111" s="1">
         <v>2</v>
       </c>
-      <c r="AG111" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="112" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>149</v>
       </c>
@@ -18713,13 +18464,10 @@
       <c r="AF112" s="4">
         <v>2</v>
       </c>
-      <c r="AG112" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="113" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>32</v>
@@ -18812,11 +18560,8 @@
       <c r="AF113" s="4">
         <v>2</v>
       </c>
-      <c r="AG113" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="114" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>513</v>
       </c>
@@ -18910,11 +18655,8 @@
       <c r="AF114" s="1">
         <v>2</v>
       </c>
-      <c r="AG114" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="115" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>422</v>
       </c>
@@ -19008,11 +18750,8 @@
       <c r="AF115" s="1">
         <v>2</v>
       </c>
-      <c r="AG115" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="116" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>357</v>
       </c>
@@ -19106,11 +18845,8 @@
       <c r="AF116" s="1">
         <v>2</v>
       </c>
-      <c r="AG116" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="117" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>409</v>
       </c>
@@ -19204,11 +18940,8 @@
       <c r="AF117" s="1">
         <v>2</v>
       </c>
-      <c r="AG117" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="118" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>236</v>
       </c>
@@ -19291,6 +19024,10 @@
       <c r="AB118" s="1">
         <v>21.8</v>
       </c>
+      <c r="AC118" s="1">
+        <f>800+(1.29*F118)</f>
+        <v>2219</v>
+      </c>
       <c r="AD118" s="1" t="s">
         <v>33</v>
       </c>
@@ -19300,11 +19037,8 @@
       <c r="AF118" s="1">
         <v>0</v>
       </c>
-      <c r="AG118" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="119" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>462</v>
       </c>
@@ -19398,11 +19132,8 @@
       <c r="AF119" s="1">
         <v>2</v>
       </c>
-      <c r="AG119" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="120" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>396</v>
       </c>
@@ -19496,11 +19227,8 @@
       <c r="AF120" s="1">
         <v>2</v>
       </c>
-      <c r="AG120" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="121" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>78</v>
       </c>
@@ -19594,11 +19322,8 @@
       <c r="AF121" s="1">
         <v>0</v>
       </c>
-      <c r="AG121" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="122" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>154</v>
       </c>
@@ -19693,13 +19418,10 @@
       <c r="AF122" s="4">
         <v>2</v>
       </c>
-      <c r="AG122" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="123" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>32</v>
@@ -19792,11 +19514,8 @@
       <c r="AF123" s="4">
         <v>2</v>
       </c>
-      <c r="AG123" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="124" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>312</v>
       </c>
@@ -19880,6 +19599,10 @@
       <c r="AB124" s="1">
         <v>19</v>
       </c>
+      <c r="AC124" s="1">
+        <f t="shared" ref="AC124:AC125" si="5">800+(1.29*F124)</f>
+        <v>2348</v>
+      </c>
       <c r="AD124" s="1" t="s">
         <v>34</v>
       </c>
@@ -19889,11 +19612,8 @@
       <c r="AF124" s="1">
         <v>2</v>
       </c>
-      <c r="AG124" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="125" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>200</v>
       </c>
@@ -19975,6 +19695,10 @@
       <c r="AB125" s="1">
         <v>21.5</v>
       </c>
+      <c r="AC125" s="1">
+        <f t="shared" si="5"/>
+        <v>2025.5</v>
+      </c>
       <c r="AD125" s="1" t="s">
         <v>33</v>
       </c>
@@ -19984,11 +19708,8 @@
       <c r="AF125" s="1">
         <v>0</v>
       </c>
-      <c r="AG125" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="126" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>49</v>
       </c>
@@ -20082,11 +19803,8 @@
       <c r="AF126" s="1">
         <v>2</v>
       </c>
-      <c r="AG126" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="127" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>97</v>
       </c>
@@ -20180,11 +19898,8 @@
       <c r="AF127" s="1">
         <v>2</v>
       </c>
-      <c r="AG127" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="128" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>98</v>
       </c>
@@ -20278,11 +19993,8 @@
       <c r="AF128" s="1">
         <v>2</v>
       </c>
-      <c r="AG128" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="129" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>324</v>
       </c>
@@ -20376,13 +20088,10 @@
       <c r="AF129" s="1">
         <v>2</v>
       </c>
-      <c r="AG129" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="130" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>32</v>
@@ -20474,11 +20183,8 @@
       <c r="AF130" s="1">
         <v>2</v>
       </c>
-      <c r="AG130" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="131" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>87</v>
       </c>
@@ -20572,11 +20278,8 @@
       <c r="AF131" s="1">
         <v>2</v>
       </c>
-      <c r="AG131" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="132" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>366</v>
       </c>
@@ -20670,11 +20373,8 @@
       <c r="AF132" s="1">
         <v>2</v>
       </c>
-      <c r="AG132" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="133" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>74</v>
       </c>
@@ -20768,11 +20468,8 @@
       <c r="AF133" s="1">
         <v>2</v>
       </c>
-      <c r="AG133" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="134" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>272</v>
       </c>
@@ -20855,6 +20552,10 @@
       <c r="AB134" s="1">
         <v>23</v>
       </c>
+      <c r="AC134" s="1">
+        <f>800+(1.29*F134)</f>
+        <v>2413.79</v>
+      </c>
       <c r="AD134" s="1" t="s">
         <v>33</v>
       </c>
@@ -20864,11 +20565,8 @@
       <c r="AF134" s="1">
         <v>0</v>
       </c>
-      <c r="AG134" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="135" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>77</v>
       </c>
@@ -20962,11 +20660,8 @@
       <c r="AF135" s="1">
         <v>2</v>
       </c>
-      <c r="AG135" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="136" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>147</v>
       </c>
@@ -21061,13 +20756,10 @@
       <c r="AF136" s="4">
         <v>2</v>
       </c>
-      <c r="AG136" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="137" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>32</v>
@@ -21160,11 +20852,8 @@
       <c r="AF137" s="4">
         <v>2</v>
       </c>
-      <c r="AG137" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="138" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>380</v>
       </c>
@@ -21258,11 +20947,8 @@
       <c r="AF138" s="1">
         <v>2</v>
       </c>
-      <c r="AG138" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="139" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>96</v>
       </c>
@@ -21356,11 +21042,8 @@
       <c r="AF139" s="1">
         <v>2</v>
       </c>
-      <c r="AG139" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="140" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>464</v>
       </c>
@@ -21454,11 +21137,8 @@
       <c r="AF140" s="1">
         <v>2</v>
       </c>
-      <c r="AG140" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="141" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>75</v>
       </c>
@@ -21552,11 +21232,8 @@
       <c r="AF141" s="1">
         <v>0</v>
       </c>
-      <c r="AG141" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="142" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>391</v>
       </c>
@@ -21650,11 +21327,8 @@
       <c r="AF142" s="1">
         <v>2</v>
       </c>
-      <c r="AG142" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="143" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>463</v>
       </c>
@@ -21749,13 +21423,10 @@
       <c r="AF143" s="4">
         <v>2</v>
       </c>
-      <c r="AG143" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="144" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>32</v>
@@ -21848,11 +21519,8 @@
       <c r="AF144" s="4">
         <v>2</v>
       </c>
-      <c r="AG144" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="145" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>545</v>
       </c>
@@ -21946,11 +21614,8 @@
       <c r="AF145" s="1">
         <v>2</v>
       </c>
-      <c r="AG145" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="146" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>486</v>
       </c>
@@ -22045,13 +21710,10 @@
       <c r="AF146" s="4">
         <v>2</v>
       </c>
-      <c r="AG146" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="147" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>32</v>
@@ -22144,11 +21806,8 @@
       <c r="AF147" s="4">
         <v>2</v>
       </c>
-      <c r="AG147" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="148" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>440</v>
       </c>
@@ -22242,11 +21901,8 @@
       <c r="AF148" s="1">
         <v>0</v>
       </c>
-      <c r="AG148" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="149" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>322</v>
       </c>
@@ -22340,11 +21996,8 @@
       <c r="AF149" s="1">
         <v>2</v>
       </c>
-      <c r="AG149" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="150" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>117</v>
       </c>
@@ -22438,13 +22091,10 @@
       <c r="AF150" s="1">
         <v>2</v>
       </c>
-      <c r="AG150" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="151" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>32</v>
@@ -22536,11 +22186,8 @@
       <c r="AF151" s="1">
         <v>3</v>
       </c>
-      <c r="AG151" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="152" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>99</v>
       </c>
@@ -22634,13 +22281,10 @@
       <c r="AF152" s="1">
         <v>2</v>
       </c>
-      <c r="AG152" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="153" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>32</v>
@@ -22733,13 +22377,10 @@
       <c r="AF153" s="4">
         <v>2</v>
       </c>
-      <c r="AG153" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="154" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>32</v>
@@ -22832,11 +22473,8 @@
       <c r="AF154" s="4">
         <v>2</v>
       </c>
-      <c r="AG154" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="155" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>383</v>
       </c>
@@ -22930,11 +22568,8 @@
       <c r="AF155" s="1">
         <v>2</v>
       </c>
-      <c r="AG155" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="156" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>543</v>
       </c>
@@ -23028,11 +22663,8 @@
       <c r="AF156" s="1">
         <v>2</v>
       </c>
-      <c r="AG156" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="157" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>355</v>
       </c>
@@ -23126,11 +22758,8 @@
       <c r="AF157" s="1">
         <v>2</v>
       </c>
-      <c r="AG157" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="158" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>373</v>
       </c>
@@ -23224,11 +22853,8 @@
       <c r="AF158" s="1">
         <v>2</v>
       </c>
-      <c r="AG158" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="159" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>474</v>
       </c>
@@ -23323,13 +22949,10 @@
       <c r="AF159" s="4">
         <v>2</v>
       </c>
-      <c r="AG159" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="160" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>32</v>
@@ -23422,11 +23045,8 @@
       <c r="AF160" s="4">
         <v>2</v>
       </c>
-      <c r="AG160" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="161" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>289</v>
       </c>
@@ -23509,6 +23129,10 @@
       <c r="AB161" s="1">
         <v>20.75</v>
       </c>
+      <c r="AC161" s="1">
+        <f>800+(1.29*F161)</f>
+        <v>2606</v>
+      </c>
       <c r="AD161" s="1" t="s">
         <v>34</v>
       </c>
@@ -23518,11 +23142,8 @@
       <c r="AF161" s="1">
         <v>2</v>
       </c>
-      <c r="AG161" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="162" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>549</v>
       </c>
@@ -23616,11 +23237,8 @@
       <c r="AF162" s="1">
         <v>2</v>
       </c>
-      <c r="AG162" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="163" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>58</v>
       </c>
@@ -23714,11 +23332,8 @@
       <c r="AF163" s="1">
         <v>2</v>
       </c>
-      <c r="AG163" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="164" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>131</v>
       </c>
@@ -23813,11 +23428,8 @@
       <c r="AF164" s="4">
         <v>2</v>
       </c>
-      <c r="AG164" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="165" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>302</v>
       </c>
@@ -23901,6 +23513,10 @@
         <f>161/6</f>
         <v>26.833333333333332</v>
       </c>
+      <c r="AC165" s="1">
+        <f>800+(1.29*F165)</f>
+        <v>2636.96</v>
+      </c>
       <c r="AD165" s="1" t="s">
         <v>34</v>
       </c>
@@ -23910,11 +23526,8 @@
       <c r="AF165" s="1">
         <v>2</v>
       </c>
-      <c r="AG165" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="166" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>404</v>
       </c>
@@ -24008,11 +23621,8 @@
       <c r="AF166" s="1">
         <v>2</v>
       </c>
-      <c r="AG166" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="167" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>310</v>
       </c>
@@ -24095,6 +23705,10 @@
       <c r="AB167" s="1">
         <v>26</v>
       </c>
+      <c r="AC167" s="1">
+        <f>800+(1.29*F167)</f>
+        <v>2636.96</v>
+      </c>
       <c r="AD167" s="1" t="s">
         <v>34</v>
       </c>
@@ -24104,11 +23718,8 @@
       <c r="AF167" s="1">
         <v>2</v>
       </c>
-      <c r="AG167" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="168" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>467</v>
       </c>
@@ -24203,13 +23814,10 @@
       <c r="AF168" s="4">
         <v>2</v>
       </c>
-      <c r="AG168" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="169" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>32</v>
@@ -24302,11 +23910,8 @@
       <c r="AF169" s="4">
         <v>2</v>
       </c>
-      <c r="AG169" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="170" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>80</v>
       </c>
@@ -24400,11 +24005,8 @@
       <c r="AF170" s="1">
         <v>2</v>
       </c>
-      <c r="AG170" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="171" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>423</v>
       </c>
@@ -24498,11 +24100,8 @@
       <c r="AF171" s="1">
         <v>2</v>
       </c>
-      <c r="AG171" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="172" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>452</v>
       </c>
@@ -24587,6 +24186,10 @@
       <c r="AB172" s="1">
         <v>33</v>
       </c>
+      <c r="AC172" s="1">
+        <f>800+(1.29*F172)</f>
+        <v>3520.61</v>
+      </c>
       <c r="AD172" s="1" t="s">
         <v>34</v>
       </c>
@@ -24596,13 +24199,10 @@
       <c r="AF172" s="1">
         <v>3</v>
       </c>
-      <c r="AG172" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="173" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>32</v>
@@ -24694,11 +24294,8 @@
       <c r="AF173" s="1">
         <v>2</v>
       </c>
-      <c r="AG173" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="174" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>138</v>
       </c>
@@ -24793,13 +24390,10 @@
       <c r="AF174" s="4">
         <v>2</v>
       </c>
-      <c r="AG174" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="175" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>32</v>
@@ -24892,11 +24486,8 @@
       <c r="AF175" s="4">
         <v>2</v>
       </c>
-      <c r="AG175" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="176" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>395</v>
       </c>
@@ -24990,11 +24581,8 @@
       <c r="AF176" s="1">
         <v>2</v>
       </c>
-      <c r="AG176" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="177" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>102</v>
       </c>
@@ -25088,11 +24676,8 @@
       <c r="AF177" s="1">
         <v>2</v>
       </c>
-      <c r="AG177" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="178" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>473</v>
       </c>
@@ -25187,13 +24772,10 @@
       <c r="AF178" s="4">
         <v>2</v>
       </c>
-      <c r="AG178" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="179" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>32</v>
@@ -25286,11 +24868,8 @@
       <c r="AF179" s="4">
         <v>2</v>
       </c>
-      <c r="AG179" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="180" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>82</v>
       </c>
@@ -25384,11 +24963,8 @@
       <c r="AF180" s="1">
         <v>2</v>
       </c>
-      <c r="AG180" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="181" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>397</v>
       </c>
@@ -25482,13 +25058,10 @@
       <c r="AF181" s="1">
         <v>2</v>
       </c>
-      <c r="AG181" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="182" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>32</v>
@@ -25581,13 +25154,10 @@
       <c r="AF182" s="4">
         <v>2</v>
       </c>
-      <c r="AG182" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="183" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>32</v>
@@ -25680,11 +25250,8 @@
       <c r="AF183" s="4">
         <v>2</v>
       </c>
-      <c r="AG183" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="184" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>335</v>
       </c>
@@ -25778,11 +25345,8 @@
       <c r="AF184" s="1">
         <v>2</v>
       </c>
-      <c r="AG184" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="185" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>118</v>
       </c>
@@ -25876,11 +25440,8 @@
       <c r="AF185" s="1">
         <v>2</v>
       </c>
-      <c r="AG185" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="186" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>354</v>
       </c>
@@ -25974,13 +25535,10 @@
       <c r="AF186" s="1">
         <v>2</v>
       </c>
-      <c r="AG186" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="187" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>32</v>
@@ -26072,11 +25630,8 @@
       <c r="AF187" s="1">
         <v>2</v>
       </c>
-      <c r="AG187" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="188" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
         <v>134</v>
       </c>
@@ -26171,13 +25726,10 @@
       <c r="AF188" s="4">
         <v>2</v>
       </c>
-      <c r="AG188" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="189" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>32</v>
@@ -26270,11 +25822,8 @@
       <c r="AF189" s="4">
         <v>2</v>
       </c>
-      <c r="AG189" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="190" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>81</v>
       </c>
@@ -26368,11 +25917,8 @@
       <c r="AF190" s="1">
         <v>2</v>
       </c>
-      <c r="AG190" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="191" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>408</v>
       </c>
@@ -26466,11 +26012,8 @@
       <c r="AF191" s="1">
         <v>2</v>
       </c>
-      <c r="AG191" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="192" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>181</v>
       </c>
@@ -26565,13 +26108,10 @@
       <c r="AF192" s="4">
         <v>2</v>
       </c>
-      <c r="AG192" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="193" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>32</v>
@@ -26664,11 +26204,8 @@
       <c r="AF193" s="4">
         <v>2</v>
       </c>
-      <c r="AG193" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="194" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>530</v>
       </c>
@@ -26762,11 +26299,8 @@
       <c r="AF194" s="1">
         <v>2</v>
       </c>
-      <c r="AG194" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="195" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>433</v>
       </c>
@@ -26860,11 +26394,8 @@
       <c r="AF195" s="1">
         <v>2</v>
       </c>
-      <c r="AG195" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="196" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>443</v>
       </c>
@@ -26958,11 +26489,8 @@
       <c r="AF196" s="1">
         <v>2</v>
       </c>
-      <c r="AG196" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="197" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>547</v>
       </c>
@@ -27056,11 +26584,8 @@
       <c r="AF197" s="1">
         <v>2</v>
       </c>
-      <c r="AG197" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="198" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>341</v>
       </c>
@@ -27154,11 +26679,8 @@
       <c r="AF198" s="1">
         <v>2</v>
       </c>
-      <c r="AG198" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="199" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>372</v>
       </c>
@@ -27252,11 +26774,8 @@
       <c r="AF199" s="1">
         <v>2</v>
       </c>
-      <c r="AG199" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="200" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>315</v>
       </c>
@@ -27350,11 +26869,8 @@
       <c r="AF200" s="1">
         <v>2</v>
       </c>
-      <c r="AG200" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="201" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
         <v>162</v>
       </c>
@@ -27449,13 +26965,10 @@
       <c r="AF201" s="4">
         <v>2</v>
       </c>
-      <c r="AG201" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="202" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>32</v>
@@ -27548,11 +27061,8 @@
       <c r="AF202" s="4">
         <v>2</v>
       </c>
-      <c r="AG202" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="203" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
         <v>141</v>
       </c>
@@ -27647,13 +27157,10 @@
       <c r="AF203" s="4">
         <v>2</v>
       </c>
-      <c r="AG203" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="204" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>32</v>
@@ -27746,11 +27253,8 @@
       <c r="AF204" s="4">
         <v>2</v>
       </c>
-      <c r="AG204" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="205" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>374</v>
       </c>
@@ -27844,11 +27348,8 @@
       <c r="AF205" s="1">
         <v>2</v>
       </c>
-      <c r="AG205" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="206" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>106</v>
       </c>
@@ -27942,11 +27443,8 @@
       <c r="AF206" s="1">
         <v>2</v>
       </c>
-      <c r="AG206" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="207" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>166</v>
       </c>
@@ -28040,11 +27538,8 @@
       <c r="AF207" s="1">
         <v>2</v>
       </c>
-      <c r="AG207" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="208" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>527</v>
       </c>
@@ -28138,13 +27633,10 @@
       <c r="AF208" s="1">
         <v>2</v>
       </c>
-      <c r="AG208" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="209" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>32</v>
@@ -28237,13 +27729,10 @@
       <c r="AF209" s="4">
         <v>2</v>
       </c>
-      <c r="AG209" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="210" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>32</v>
@@ -28336,11 +27825,8 @@
       <c r="AF210" s="4">
         <v>2</v>
       </c>
-      <c r="AG210" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="211" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>333</v>
       </c>
@@ -28434,13 +27920,10 @@
       <c r="AF211" s="1">
         <v>2</v>
       </c>
-      <c r="AG211" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="212" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>32</v>
@@ -28532,11 +28015,8 @@
       <c r="AF212" s="1">
         <v>2</v>
       </c>
-      <c r="AG212" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="213" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>175</v>
       </c>
@@ -28630,11 +28110,8 @@
       <c r="AF213" s="1">
         <v>2</v>
       </c>
-      <c r="AG213" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="214" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>316</v>
       </c>
@@ -28728,11 +28205,8 @@
       <c r="AF214" s="1">
         <v>2</v>
       </c>
-      <c r="AG214" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="215" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>515</v>
       </c>
@@ -28826,11 +28300,8 @@
       <c r="AF215" s="1">
         <v>2</v>
       </c>
-      <c r="AG215" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="216" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>521</v>
       </c>
@@ -28924,11 +28395,8 @@
       <c r="AF216" s="1">
         <v>2</v>
       </c>
-      <c r="AG216" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="217" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>528</v>
       </c>
@@ -29022,11 +28490,8 @@
       <c r="AF217" s="1">
         <v>2</v>
       </c>
-      <c r="AG217" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="218" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
         <v>471</v>
       </c>
@@ -29121,13 +28586,10 @@
       <c r="AF218" s="4">
         <v>2</v>
       </c>
-      <c r="AG218" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="219" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>32</v>
@@ -29220,11 +28682,8 @@
       <c r="AF219" s="4">
         <v>2</v>
       </c>
-      <c r="AG219" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="220" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>378</v>
       </c>
@@ -29318,11 +28777,8 @@
       <c r="AF220" s="1">
         <v>2</v>
       </c>
-      <c r="AG220" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="221" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>86</v>
       </c>
@@ -29416,11 +28872,8 @@
       <c r="AF221" s="1">
         <v>2</v>
       </c>
-      <c r="AG221" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="222" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>146</v>
       </c>
@@ -29515,13 +28968,10 @@
       <c r="AF222" s="4">
         <v>2</v>
       </c>
-      <c r="AG222" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="223" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>32</v>
@@ -29614,11 +29064,8 @@
       <c r="AF223" s="4">
         <v>2</v>
       </c>
-      <c r="AG223" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="224" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>90</v>
       </c>
@@ -29712,11 +29159,8 @@
       <c r="AF224" s="1">
         <v>2</v>
       </c>
-      <c r="AG224" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="225" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>150</v>
       </c>
@@ -29811,13 +29255,10 @@
       <c r="AF225" s="4">
         <v>3</v>
       </c>
-      <c r="AG225" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="226" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>32</v>
@@ -29910,11 +29351,8 @@
       <c r="AF226" s="4">
         <v>3</v>
       </c>
-      <c r="AG226" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="227" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
         <v>156</v>
       </c>
@@ -30009,13 +29447,10 @@
       <c r="AF227" s="4">
         <v>3</v>
       </c>
-      <c r="AG227" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="228" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>32</v>
@@ -30108,11 +29543,8 @@
       <c r="AF228" s="4">
         <v>3</v>
       </c>
-      <c r="AG228" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="229" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>403</v>
       </c>
@@ -30206,11 +29638,8 @@
       <c r="AF229" s="1">
         <v>2</v>
       </c>
-      <c r="AG229" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="230" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>375</v>
       </c>
@@ -30304,11 +29733,8 @@
       <c r="AF230" s="1">
         <v>2</v>
       </c>
-      <c r="AG230" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="231" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>167</v>
       </c>
@@ -30402,11 +29828,8 @@
       <c r="AF231" s="1">
         <v>2</v>
       </c>
-      <c r="AG231" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="232" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
         <v>176</v>
       </c>
@@ -30501,13 +29924,10 @@
       <c r="AF232" s="4">
         <v>2</v>
       </c>
-      <c r="AG232" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="233" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>32</v>
@@ -30600,11 +30020,8 @@
       <c r="AF233" s="4">
         <v>2</v>
       </c>
-      <c r="AG233" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="234" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>417</v>
       </c>
@@ -30698,11 +30115,8 @@
       <c r="AF234" s="1">
         <v>2</v>
       </c>
-      <c r="AG234" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="235" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>356</v>
       </c>
@@ -30796,11 +30210,8 @@
       <c r="AF235" s="1">
         <v>2</v>
       </c>
-      <c r="AG235" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="236" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>64</v>
       </c>
@@ -30894,11 +30305,8 @@
       <c r="AF236" s="1">
         <v>2</v>
       </c>
-      <c r="AG236" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="237" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
         <v>174</v>
       </c>
@@ -30993,13 +30401,10 @@
       <c r="AF237" s="4">
         <v>2</v>
       </c>
-      <c r="AG237" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="238" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>32</v>
@@ -31092,11 +30497,8 @@
       <c r="AF238" s="4">
         <v>2</v>
       </c>
-      <c r="AG238" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="239" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>406</v>
       </c>
@@ -31191,11 +30593,8 @@
       <c r="AF239" s="9">
         <v>2</v>
       </c>
-      <c r="AG239" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="240" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>519</v>
       </c>
@@ -31289,11 +30688,8 @@
       <c r="AF240" s="1">
         <v>2</v>
       </c>
-      <c r="AG240" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="241" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>412</v>
       </c>
@@ -31387,11 +30783,8 @@
       <c r="AF241" s="1">
         <v>2</v>
       </c>
-      <c r="AG241" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="242" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>536</v>
       </c>
@@ -31485,11 +30878,8 @@
       <c r="AF242" s="1">
         <v>2</v>
       </c>
-      <c r="AG242" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="243" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>435</v>
       </c>
@@ -31583,11 +30973,8 @@
       <c r="AF243" s="1">
         <v>2</v>
       </c>
-      <c r="AG243" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="244" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>281</v>
       </c>
@@ -31670,6 +31057,10 @@
       <c r="AB244" s="1">
         <v>22.5</v>
       </c>
+      <c r="AC244" s="1">
+        <f>800+(1.29*F244)</f>
+        <v>2546.66</v>
+      </c>
       <c r="AD244" s="1" t="s">
         <v>35</v>
       </c>
@@ -31679,11 +31070,8 @@
       <c r="AF244" s="1">
         <v>2</v>
       </c>
-      <c r="AG244" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="245" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>523</v>
       </c>
@@ -31777,11 +31165,8 @@
       <c r="AF245" s="1">
         <v>0</v>
       </c>
-      <c r="AG245" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="246" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>253</v>
       </c>
@@ -31863,6 +31248,10 @@
       <c r="AB246" s="1">
         <v>15.3</v>
       </c>
+      <c r="AC246" s="1">
+        <f>800+(1.29*F246)</f>
+        <v>2348</v>
+      </c>
       <c r="AD246" s="1" t="s">
         <v>34</v>
       </c>
@@ -31872,11 +31261,8 @@
       <c r="AF246" s="1">
         <v>2</v>
       </c>
-      <c r="AG246" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="247" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>112</v>
       </c>
@@ -31970,11 +31356,8 @@
       <c r="AF247" s="1">
         <v>2</v>
       </c>
-      <c r="AG247" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="248" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="s">
         <v>477</v>
       </c>
@@ -32068,11 +31451,8 @@
       <c r="AF248" s="1">
         <v>2</v>
       </c>
-      <c r="AG248" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="249" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>113</v>
       </c>
@@ -32166,11 +31546,8 @@
       <c r="AF249" s="1">
         <v>3</v>
       </c>
-      <c r="AG249" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="250" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>83</v>
       </c>
@@ -32264,11 +31641,8 @@
       <c r="AF250" s="1">
         <v>2</v>
       </c>
-      <c r="AG250" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="251" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>42</v>
       </c>
@@ -32362,11 +31736,8 @@
       <c r="AF251" s="1">
         <v>2</v>
       </c>
-      <c r="AG251" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="252" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>122</v>
       </c>
@@ -32460,11 +31831,8 @@
       <c r="AF252" s="1">
         <v>2</v>
       </c>
-      <c r="AG252" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="253" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>363</v>
       </c>
@@ -32558,11 +31926,8 @@
       <c r="AF253" s="1">
         <v>2</v>
       </c>
-      <c r="AG253" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="254" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>400</v>
       </c>
@@ -32656,11 +32021,8 @@
       <c r="AF254" s="1">
         <v>2</v>
       </c>
-      <c r="AG254" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="255" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>529</v>
       </c>
@@ -32754,13 +32116,10 @@
       <c r="AF255" s="1">
         <v>2</v>
       </c>
-      <c r="AG255" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="256" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>32</v>
@@ -32852,11 +32211,8 @@
       <c r="AF256" s="1">
         <v>2</v>
       </c>
-      <c r="AG256" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="257" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>336</v>
       </c>
@@ -32950,11 +32306,8 @@
       <c r="AF257" s="1">
         <v>3</v>
       </c>
-      <c r="AG257" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="258" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>343</v>
       </c>
@@ -33048,11 +32401,8 @@
       <c r="AF258" s="1">
         <v>2</v>
       </c>
-      <c r="AG258" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="259" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>520</v>
       </c>
@@ -33146,11 +32496,8 @@
       <c r="AF259" s="1">
         <v>2</v>
       </c>
-      <c r="AG259" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="260" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>277</v>
       </c>
@@ -33233,6 +32580,10 @@
       <c r="AB260" s="1">
         <v>15.5</v>
       </c>
+      <c r="AC260" s="1">
+        <f>800+(1.29*F260)</f>
+        <v>2489.9</v>
+      </c>
       <c r="AD260" s="1" t="s">
         <v>34</v>
       </c>
@@ -33242,11 +32593,8 @@
       <c r="AF260" s="1">
         <v>2</v>
       </c>
-      <c r="AG260" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="261" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>52</v>
       </c>
@@ -33340,11 +32688,8 @@
       <c r="AF261" s="1">
         <v>2</v>
       </c>
-      <c r="AG261" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="262" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>330</v>
       </c>
@@ -33438,11 +32783,8 @@
       <c r="AF262" s="1">
         <v>2</v>
       </c>
-      <c r="AG262" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="263" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>511</v>
       </c>
@@ -33527,6 +32869,10 @@
       <c r="AB263" s="1">
         <v>21.5</v>
       </c>
+      <c r="AC263" s="1">
+        <f>800+(1.29*F263)</f>
+        <v>2869.16</v>
+      </c>
       <c r="AD263" s="1" t="s">
         <v>34</v>
       </c>
@@ -33536,11 +32882,8 @@
       <c r="AF263" s="1">
         <v>2</v>
       </c>
-      <c r="AG263" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="264" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>61</v>
       </c>
@@ -33634,11 +32977,8 @@
       <c r="AF264" s="1">
         <v>2</v>
       </c>
-      <c r="AG264" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="265" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>79</v>
       </c>
@@ -33732,11 +33072,8 @@
       <c r="AF265" s="1">
         <v>2</v>
       </c>
-      <c r="AG265" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="266" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
         <v>159</v>
       </c>
@@ -33831,13 +33168,10 @@
       <c r="AF266" s="4">
         <v>2</v>
       </c>
-      <c r="AG266" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="267" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>32</v>
@@ -33930,11 +33264,8 @@
       <c r="AF267" s="4">
         <v>2</v>
       </c>
-      <c r="AG267" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="268" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>392</v>
       </c>
@@ -34028,11 +33359,8 @@
       <c r="AF268" s="1">
         <v>2</v>
       </c>
-      <c r="AG268" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="269" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>489</v>
       </c>
@@ -34126,16 +33454,13 @@
       <c r="AF269" s="1">
         <v>3</v>
       </c>
-      <c r="AG269" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="270" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>447</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="C270" s="1">
         <v>1</v>
@@ -34224,16 +33549,13 @@
       <c r="AF270" s="1">
         <v>3</v>
       </c>
-      <c r="AG270" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="271" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>448</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="C271" s="1">
         <v>1</v>
@@ -34322,11 +33644,8 @@
       <c r="AF271" s="1">
         <v>2</v>
       </c>
-      <c r="AG271" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="272" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>37</v>
       </c>
@@ -34420,13 +33739,10 @@
       <c r="AF272" s="1">
         <v>2</v>
       </c>
-      <c r="AG272" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="273" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>32</v>
@@ -34518,11 +33834,8 @@
       <c r="AF273" s="1">
         <v>2</v>
       </c>
-      <c r="AG273" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="274" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>71</v>
       </c>
@@ -34616,11 +33929,8 @@
       <c r="AF274" s="1">
         <v>0</v>
       </c>
-      <c r="AG274" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="275" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>358</v>
       </c>
@@ -34714,11 +34024,8 @@
       <c r="AF275" s="1">
         <v>2</v>
       </c>
-      <c r="AG275" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="276" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>73</v>
       </c>
@@ -34812,11 +34119,8 @@
       <c r="AF276" s="1">
         <v>2</v>
       </c>
-      <c r="AG276" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="277" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>84</v>
       </c>
@@ -34910,11 +34214,8 @@
       <c r="AF277" s="1">
         <v>2</v>
       </c>
-      <c r="AG277" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="278" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>398</v>
       </c>
@@ -35008,11 +34309,8 @@
       <c r="AF278" s="1">
         <v>2</v>
       </c>
-      <c r="AG278" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="279" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>410</v>
       </c>
@@ -35106,11 +34404,8 @@
       <c r="AF279" s="1">
         <v>2</v>
       </c>
-      <c r="AG279" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="280" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>531</v>
       </c>
@@ -35204,11 +34499,8 @@
       <c r="AF280" s="1">
         <v>2</v>
       </c>
-      <c r="AG280" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="281" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
         <v>484</v>
       </c>
@@ -35303,13 +34595,10 @@
       <c r="AF281" s="4">
         <v>3</v>
       </c>
-      <c r="AG281" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="282" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>32</v>
@@ -35402,11 +34691,8 @@
       <c r="AF282" s="4">
         <v>3</v>
       </c>
-      <c r="AG282" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="283" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>257</v>
       </c>
@@ -35488,6 +34774,10 @@
       <c r="AB283" s="1">
         <v>15.3</v>
       </c>
+      <c r="AC283" s="1">
+        <f>800+(1.29*F283)</f>
+        <v>2368.6400000000003</v>
+      </c>
       <c r="AD283" s="1" t="s">
         <v>34</v>
       </c>
@@ -35497,11 +34787,8 @@
       <c r="AF283" s="1">
         <v>2</v>
       </c>
-      <c r="AG283" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="284" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>55</v>
       </c>
@@ -35595,11 +34882,8 @@
       <c r="AF284" s="1">
         <v>2</v>
       </c>
-      <c r="AG284" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="285" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>47</v>
       </c>
@@ -35693,11 +34977,8 @@
       <c r="AF285" s="1">
         <v>2</v>
       </c>
-      <c r="AG285" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="286" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>65</v>
       </c>
@@ -35791,11 +35072,8 @@
       <c r="AF286" s="1">
         <v>2</v>
       </c>
-      <c r="AG286" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="287" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
         <v>142</v>
       </c>
@@ -35890,13 +35168,10 @@
       <c r="AF287" s="4">
         <v>2</v>
       </c>
-      <c r="AG287" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="288" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>32</v>
@@ -35989,11 +35264,8 @@
       <c r="AF288" s="4">
         <v>2</v>
       </c>
-      <c r="AG288" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="289" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
         <v>160</v>
       </c>
@@ -36088,13 +35360,10 @@
       <c r="AF289" s="4">
         <v>2</v>
       </c>
-      <c r="AG289" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="290" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>32</v>
@@ -36187,11 +35456,8 @@
       <c r="AF290" s="4">
         <v>2</v>
       </c>
-      <c r="AG290" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="291" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>413</v>
       </c>
@@ -36285,11 +35551,8 @@
       <c r="AF291" s="1">
         <v>2</v>
       </c>
-      <c r="AG291" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="292" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
         <v>183</v>
       </c>
@@ -36384,13 +35647,10 @@
       <c r="AF292" s="4">
         <v>2</v>
       </c>
-      <c r="AG292" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="293" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>32</v>
@@ -36483,11 +35743,8 @@
       <c r="AF293" s="4">
         <v>2</v>
       </c>
-      <c r="AG293" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="294" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>420</v>
       </c>
@@ -36581,11 +35838,8 @@
       <c r="AF294" s="1">
         <v>2</v>
       </c>
-      <c r="AG294" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="295" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
         <v>469</v>
       </c>
@@ -36680,13 +35934,10 @@
       <c r="AF295" s="4">
         <v>2</v>
       </c>
-      <c r="AG295" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="296" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>32</v>
@@ -36779,11 +36030,8 @@
       <c r="AF296" s="4">
         <v>2</v>
       </c>
-      <c r="AG296" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="297" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>470</v>
       </c>
@@ -36877,11 +36125,8 @@
       <c r="AF297" s="1">
         <v>2</v>
       </c>
-      <c r="AG297" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="298" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>39</v>
       </c>
@@ -36975,13 +36220,10 @@
       <c r="AF298" s="1">
         <v>2</v>
       </c>
-      <c r="AG298" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="299" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>32</v>
@@ -37073,11 +36315,8 @@
       <c r="AF299" s="1">
         <v>2</v>
       </c>
-      <c r="AG299" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="300" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>337</v>
       </c>
@@ -37171,11 +36410,8 @@
       <c r="AF300" s="1">
         <v>3</v>
       </c>
-      <c r="AG300" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="301" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
         <v>124</v>
       </c>
@@ -37270,13 +36506,10 @@
       <c r="AF301" s="4">
         <v>2</v>
       </c>
-      <c r="AG301" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="302" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>32</v>
@@ -37369,11 +36602,8 @@
       <c r="AF302" s="4">
         <v>2</v>
       </c>
-      <c r="AG302" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="303" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>67</v>
       </c>
@@ -37467,11 +36697,8 @@
       <c r="AF303" s="1">
         <v>2</v>
       </c>
-      <c r="AG303" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="304" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
         <v>135</v>
       </c>
@@ -37566,13 +36793,10 @@
       <c r="AF304" s="4">
         <v>2</v>
       </c>
-      <c r="AG304" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="305" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>32</v>
@@ -37665,11 +36889,8 @@
       <c r="AF305" s="4">
         <v>3</v>
       </c>
-      <c r="AG305" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="306" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>377</v>
       </c>
@@ -37763,11 +36984,8 @@
       <c r="AF306" s="1">
         <v>2</v>
       </c>
-      <c r="AG306" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="307" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>384</v>
       </c>
@@ -37861,11 +37079,8 @@
       <c r="AF307" s="1">
         <v>2</v>
       </c>
-      <c r="AG307" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="308" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
         <v>140</v>
       </c>
@@ -37960,13 +37175,10 @@
       <c r="AF308" s="4">
         <v>2</v>
       </c>
-      <c r="AG308" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="309" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>32</v>
@@ -38059,11 +37271,8 @@
       <c r="AF309" s="4">
         <v>2</v>
       </c>
-      <c r="AG309" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="310" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>40</v>
       </c>
@@ -38157,11 +37366,8 @@
       <c r="AF310" s="1">
         <v>2</v>
       </c>
-      <c r="AG310" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="311" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>488</v>
       </c>
@@ -38255,13 +37461,10 @@
       <c r="AF311" s="1">
         <v>3</v>
       </c>
-      <c r="AG311" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="312" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>32</v>
@@ -38353,11 +37556,8 @@
       <c r="AF312" s="1">
         <v>3</v>
       </c>
-      <c r="AG312" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="313" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>350</v>
       </c>
@@ -38451,11 +37651,8 @@
       <c r="AF313" s="1">
         <v>2</v>
       </c>
-      <c r="AG313" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="314" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>123</v>
       </c>
@@ -38549,11 +37746,8 @@
       <c r="AF314" s="1">
         <v>2</v>
       </c>
-      <c r="AG314" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="315" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>518</v>
       </c>
@@ -38647,13 +37841,10 @@
       <c r="AF315" s="1">
         <v>2</v>
       </c>
-      <c r="AG315" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="316" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="4" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>32</v>
@@ -38746,13 +37937,10 @@
       <c r="AF316" s="4">
         <v>2</v>
       </c>
-      <c r="AG316" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="317" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>32</v>
@@ -38845,11 +38033,8 @@
       <c r="AF317" s="4">
         <v>2</v>
       </c>
-      <c r="AG317" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="318" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>62</v>
       </c>
@@ -38943,11 +38128,8 @@
       <c r="AF318" s="1">
         <v>2</v>
       </c>
-      <c r="AG318" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="319" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>105</v>
       </c>
@@ -39041,11 +38223,8 @@
       <c r="AF319" s="1">
         <v>2</v>
       </c>
-      <c r="AG319" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="320" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>110</v>
       </c>
@@ -39139,11 +38318,8 @@
       <c r="AF320" s="1">
         <v>2</v>
       </c>
-      <c r="AG320" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="321" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>314</v>
       </c>
@@ -39237,11 +38413,8 @@
       <c r="AF321" s="1">
         <v>0</v>
       </c>
-      <c r="AG321" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="322" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>338</v>
       </c>
@@ -39335,11 +38508,8 @@
       <c r="AF322" s="1">
         <v>3</v>
       </c>
-      <c r="AG322" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="323" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>43</v>
       </c>
@@ -39433,11 +38603,8 @@
       <c r="AF323" s="1">
         <v>2</v>
       </c>
-      <c r="AG323" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="324" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>389</v>
       </c>
@@ -39531,11 +38698,8 @@
       <c r="AF324" s="1">
         <v>2</v>
       </c>
-      <c r="AG324" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="325" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>119</v>
       </c>
@@ -39629,11 +38793,8 @@
       <c r="AF325" s="1">
         <v>2</v>
       </c>
-      <c r="AG325" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="326" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>230</v>
       </c>
@@ -39715,6 +38876,10 @@
       <c r="AB326" s="1">
         <v>21.5</v>
       </c>
+      <c r="AC326" s="1">
+        <f>800+(1.29*F326)</f>
+        <v>2110.6400000000003</v>
+      </c>
       <c r="AD326" s="1" t="s">
         <v>33</v>
       </c>
@@ -39724,11 +38889,8 @@
       <c r="AF326" s="1">
         <v>0</v>
       </c>
-      <c r="AG326" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="327" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>132</v>
       </c>
@@ -39822,11 +38984,8 @@
       <c r="AF327" s="1">
         <v>0</v>
       </c>
-      <c r="AG327" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="328" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>104</v>
       </c>
@@ -39920,11 +39079,8 @@
       <c r="AF328" s="1">
         <v>2</v>
       </c>
-      <c r="AG328" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="329" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>164</v>
       </c>
@@ -40018,11 +39174,8 @@
       <c r="AF329" s="1">
         <v>2</v>
       </c>
-      <c r="AG329" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="330" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
         <v>168</v>
       </c>
@@ -40117,13 +39270,10 @@
       <c r="AF330" s="4">
         <v>2</v>
       </c>
-      <c r="AG330" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="331" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="4" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>32</v>
@@ -40216,11 +39366,8 @@
       <c r="AF331" s="4">
         <v>2</v>
       </c>
-      <c r="AG331" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="332" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>351</v>
       </c>
@@ -40314,11 +39461,8 @@
       <c r="AF332" s="1">
         <v>2</v>
       </c>
-      <c r="AG332" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="333" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>126</v>
       </c>
@@ -40413,11 +39557,8 @@
       <c r="AF333" s="1">
         <v>2</v>
       </c>
-      <c r="AG333" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="334" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>63</v>
       </c>
@@ -40511,11 +39652,8 @@
       <c r="AF334" s="1">
         <v>2</v>
       </c>
-      <c r="AG334" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="335" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>69</v>
       </c>
@@ -40609,11 +39747,8 @@
       <c r="AF335" s="1">
         <v>2</v>
       </c>
-      <c r="AG335" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="336" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>70</v>
       </c>
@@ -40707,11 +39842,8 @@
       <c r="AF336" s="1">
         <v>2</v>
       </c>
-      <c r="AG336" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="337" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>369</v>
       </c>
@@ -40805,11 +39937,8 @@
       <c r="AF337" s="1">
         <v>2</v>
       </c>
-      <c r="AG337" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="338" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>381</v>
       </c>
@@ -40903,11 +40032,8 @@
       <c r="AF338" s="1">
         <v>2</v>
       </c>
-      <c r="AG338" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="339" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>91</v>
       </c>
@@ -41001,11 +40127,8 @@
       <c r="AF339" s="1">
         <v>2</v>
       </c>
-      <c r="AG339" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="340" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>92</v>
       </c>
@@ -41099,11 +40222,8 @@
       <c r="AF340" s="1">
         <v>2</v>
       </c>
-      <c r="AG340" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="341" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>152</v>
       </c>
@@ -41197,11 +40317,8 @@
       <c r="AF341" s="1">
         <v>2</v>
       </c>
-      <c r="AG341" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="342" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>155</v>
       </c>
@@ -41295,11 +40412,8 @@
       <c r="AF342" s="1">
         <v>2</v>
       </c>
-      <c r="AG342" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="343" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="4" t="s">
         <v>157</v>
       </c>
@@ -41394,13 +40508,10 @@
       <c r="AF343" s="4">
         <v>2</v>
       </c>
-      <c r="AG343" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="344" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="4" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>32</v>
@@ -41493,11 +40604,8 @@
       <c r="AF344" s="4">
         <v>2</v>
       </c>
-      <c r="AG344" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="345" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>394</v>
       </c>
@@ -41591,11 +40699,8 @@
       <c r="AF345" s="1">
         <v>2</v>
       </c>
-      <c r="AG345" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="346" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>103</v>
       </c>
@@ -41689,11 +40794,8 @@
       <c r="AF346" s="1">
         <v>2</v>
       </c>
-      <c r="AG346" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="347" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="4" t="s">
         <v>163</v>
       </c>
@@ -41788,13 +40890,10 @@
       <c r="AF347" s="4">
         <v>2</v>
       </c>
-      <c r="AG347" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="348" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="4" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>32</v>
@@ -41887,11 +40986,8 @@
       <c r="AF348" s="4">
         <v>2</v>
       </c>
-      <c r="AG348" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="349" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>107</v>
       </c>
@@ -41985,11 +41081,8 @@
       <c r="AF349" s="1">
         <v>2</v>
       </c>
-      <c r="AG349" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="350" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>407</v>
       </c>
@@ -42083,11 +41176,8 @@
       <c r="AF350" s="1">
         <v>2</v>
       </c>
-      <c r="AG350" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="351" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>411</v>
       </c>
@@ -42181,11 +41271,8 @@
       <c r="AF351" s="1">
         <v>2</v>
       </c>
-      <c r="AG351" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="352" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="4" t="s">
         <v>180</v>
       </c>
@@ -42280,13 +41367,10 @@
       <c r="AF352" s="4">
         <v>2</v>
       </c>
-      <c r="AG352" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="353" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="4" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>32</v>
@@ -42379,11 +41463,8 @@
       <c r="AF353" s="4">
         <v>2</v>
       </c>
-      <c r="AG353" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="354" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="4" t="s">
         <v>184</v>
       </c>
@@ -42478,13 +41559,10 @@
       <c r="AF354" s="4">
         <v>2</v>
       </c>
-      <c r="AG354" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="355" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="4" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>32</v>
@@ -42577,11 +41655,8 @@
       <c r="AF355" s="4">
         <v>2</v>
       </c>
-      <c r="AG355" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="356" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="4" t="s">
         <v>475</v>
       </c>
@@ -42676,13 +41751,10 @@
       <c r="AF356" s="4">
         <v>2</v>
       </c>
-      <c r="AG356" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="357" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="4" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>32</v>
@@ -42775,11 +41847,8 @@
       <c r="AF357" s="4">
         <v>2</v>
       </c>
-      <c r="AG357" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="358" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>431</v>
       </c>
@@ -42873,11 +41942,8 @@
       <c r="AF358" s="1">
         <v>2</v>
       </c>
-      <c r="AG358" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="359" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>535</v>
       </c>
@@ -42971,11 +42037,8 @@
       <c r="AF359" s="1">
         <v>2</v>
       </c>
-      <c r="AG359" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="360" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>548</v>
       </c>
@@ -43069,11 +42132,8 @@
       <c r="AF360" s="1">
         <v>2</v>
       </c>
-      <c r="AG360" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="361" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>190</v>
       </c>
@@ -43155,6 +42215,10 @@
       <c r="AB361" s="1">
         <v>19</v>
       </c>
+      <c r="AC361" s="1">
+        <f>800+(1.29*F361)</f>
+        <v>1574</v>
+      </c>
       <c r="AD361" s="1" t="s">
         <v>33</v>
       </c>
@@ -43164,11 +42228,8 @@
       <c r="AF361" s="1">
         <v>0</v>
       </c>
-      <c r="AG361" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="362" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>114</v>
       </c>
@@ -43262,11 +42323,8 @@
       <c r="AF362" s="1">
         <v>2</v>
       </c>
-      <c r="AG362" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="363" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>320</v>
       </c>
@@ -43360,11 +42418,8 @@
       <c r="AF363" s="1">
         <v>2</v>
       </c>
-      <c r="AG363" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="364" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>325</v>
       </c>
@@ -43458,11 +42513,8 @@
       <c r="AF364" s="1">
         <v>2</v>
       </c>
-      <c r="AG364" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="365" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>46</v>
       </c>
@@ -43556,11 +42608,8 @@
       <c r="AF365" s="1">
         <v>2</v>
       </c>
-      <c r="AG365" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="366" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>495</v>
       </c>
@@ -43645,6 +42694,10 @@
       <c r="AB366" s="1">
         <v>20</v>
       </c>
+      <c r="AC366" s="1">
+        <f t="shared" ref="AC366:AC367" si="6">800+(1.29*F366)</f>
+        <v>2608.58</v>
+      </c>
       <c r="AD366" s="1" t="s">
         <v>34</v>
       </c>
@@ -43654,11 +42707,8 @@
       <c r="AF366" s="1">
         <v>2</v>
       </c>
-      <c r="AG366" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="367" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>500</v>
       </c>
@@ -43743,6 +42793,10 @@
       <c r="AB367" s="1">
         <v>20</v>
       </c>
+      <c r="AC367" s="1">
+        <f t="shared" si="6"/>
+        <v>2735</v>
+      </c>
       <c r="AD367" s="1" t="s">
         <v>34</v>
       </c>
@@ -43752,11 +42806,8 @@
       <c r="AF367" s="1">
         <v>2</v>
       </c>
-      <c r="AG367" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="368" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>151</v>
       </c>
@@ -43850,11 +42901,8 @@
       <c r="AF368" s="1">
         <v>2</v>
       </c>
-      <c r="AG368" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="369" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>517</v>
       </c>
@@ -43948,11 +42996,8 @@
       <c r="AF369" s="1">
         <v>3</v>
       </c>
-      <c r="AG369" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="370" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>379</v>
       </c>
@@ -44046,11 +43091,8 @@
       <c r="AF370" s="1">
         <v>0</v>
       </c>
-      <c r="AG370" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="371" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>41</v>
       </c>
@@ -44144,11 +43186,8 @@
       <c r="AF371" s="1">
         <v>2</v>
       </c>
-      <c r="AG371" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="372" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>385</v>
       </c>
@@ -44242,11 +43281,8 @@
       <c r="AF372" s="1">
         <v>2</v>
       </c>
-      <c r="AG372" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="373" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>212</v>
       </c>
@@ -44328,6 +43364,10 @@
       <c r="AB373" s="1">
         <v>21.5</v>
       </c>
+      <c r="AC373" s="1">
+        <f t="shared" ref="AC373:AC375" si="7">800+(1.29*F373)</f>
+        <v>1832</v>
+      </c>
       <c r="AD373" s="1" t="s">
         <v>33</v>
       </c>
@@ -44337,11 +43377,8 @@
       <c r="AF373" s="1">
         <v>0</v>
       </c>
-      <c r="AG373" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="374" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>228</v>
       </c>
@@ -44426,6 +43463,10 @@
       <c r="AB374" s="1">
         <v>18.170000000000002</v>
       </c>
+      <c r="AC374" s="1">
+        <f t="shared" si="7"/>
+        <v>2090</v>
+      </c>
       <c r="AD374" s="1" t="s">
         <v>33</v>
       </c>
@@ -44435,11 +43476,8 @@
       <c r="AF374" s="1">
         <v>0</v>
       </c>
-      <c r="AG374" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="375" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>229</v>
       </c>
@@ -44524,6 +43562,10 @@
       <c r="AB375" s="1">
         <v>18.170000000000002</v>
       </c>
+      <c r="AC375" s="1">
+        <f t="shared" si="7"/>
+        <v>2091.29</v>
+      </c>
       <c r="AD375" s="1" t="s">
         <v>34</v>
       </c>
@@ -44533,13 +43575,10 @@
       <c r="AF375" s="1">
         <v>1</v>
       </c>
-      <c r="AG375" s="1" t="s">
+    </row>
+    <row r="376" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="4" t="s">
         <v>558</v>
-      </c>
-    </row>
-    <row r="376" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="4" t="s">
-        <v>561</v>
       </c>
       <c r="B376" s="4" t="s">
         <v>32</v>
@@ -44632,13 +43671,10 @@
       <c r="AF376" s="4">
         <v>2</v>
       </c>
-      <c r="AG376" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="377" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>32</v>
@@ -44730,11 +43766,8 @@
       <c r="AF377" s="1">
         <v>2</v>
       </c>
-      <c r="AG377" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="378" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>509</v>
       </c>
@@ -44819,6 +43852,10 @@
       <c r="AB378" s="1">
         <v>22</v>
       </c>
+      <c r="AC378" s="1">
+        <f t="shared" ref="AC378:AC379" si="8">800+(1.29*F378)</f>
+        <v>2865.29</v>
+      </c>
       <c r="AD378" s="1" t="s">
         <v>34</v>
       </c>
@@ -44828,11 +43865,8 @@
       <c r="AF378" s="1">
         <v>2</v>
       </c>
-      <c r="AG378" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="379" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>510</v>
       </c>
@@ -44917,6 +43951,10 @@
       <c r="AB379" s="1">
         <v>21</v>
       </c>
+      <c r="AC379" s="1">
+        <f t="shared" si="8"/>
+        <v>2866.58</v>
+      </c>
       <c r="AD379" s="1" t="s">
         <v>34</v>
       </c>
@@ -44926,13 +43964,10 @@
       <c r="AF379" s="1">
         <v>2</v>
       </c>
-      <c r="AG379" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="380" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>32</v>
@@ -45024,13 +44059,10 @@
       <c r="AF380" s="1">
         <v>2</v>
       </c>
-      <c r="AG380" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="381" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>32</v>
@@ -45122,11 +44154,8 @@
       <c r="AF381" s="1">
         <v>2</v>
       </c>
-      <c r="AG381" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="382" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>331</v>
       </c>
@@ -45220,11 +44249,8 @@
       <c r="AF382" s="1">
         <v>2</v>
       </c>
-      <c r="AG382" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="383" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>36</v>
       </c>
@@ -45318,13 +44344,10 @@
       <c r="AF383" s="1">
         <v>2</v>
       </c>
-      <c r="AG383" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="384" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>32</v>
@@ -45416,11 +44439,8 @@
       <c r="AF384" s="1">
         <v>2</v>
       </c>
-      <c r="AG384" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="385" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>266</v>
       </c>
@@ -45502,6 +44522,10 @@
       <c r="AB385" s="1">
         <v>23.6</v>
       </c>
+      <c r="AC385" s="1">
+        <f>800+(1.29*F385)</f>
+        <v>2412.5</v>
+      </c>
       <c r="AD385" s="1" t="s">
         <v>34</v>
       </c>
@@ -45511,11 +44535,8 @@
       <c r="AF385" s="1">
         <v>2</v>
       </c>
-      <c r="AG385" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="386" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>321</v>
       </c>
@@ -45609,11 +44630,8 @@
       <c r="AF386" s="1">
         <v>2</v>
       </c>
-      <c r="AG386" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="387" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>121</v>
       </c>
@@ -45707,11 +44725,8 @@
       <c r="AF387" s="1">
         <v>2</v>
       </c>
-      <c r="AG387" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="388" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>428</v>
       </c>
@@ -45805,11 +44820,8 @@
       <c r="AF388" s="1">
         <v>2</v>
       </c>
-      <c r="AG388" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="389" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="4" t="s">
         <v>476</v>
       </c>
@@ -45904,13 +44916,10 @@
       <c r="AF389" s="4">
         <v>2</v>
       </c>
-      <c r="AG389" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="390" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="4" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>32</v>
@@ -46003,11 +45012,8 @@
       <c r="AF390" s="4">
         <v>2</v>
       </c>
-      <c r="AG390" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="391" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>438</v>
       </c>
@@ -46101,13 +45107,10 @@
       <c r="AF391" s="1">
         <v>2</v>
       </c>
-      <c r="AG391" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="392" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>32</v>
@@ -46199,13 +45202,10 @@
       <c r="AF392" s="1">
         <v>2</v>
       </c>
-      <c r="AG392" s="4" t="s">
+    </row>
+    <row r="393" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
         <v>562</v>
-      </c>
-    </row>
-    <row r="393" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="1" t="s">
-        <v>566</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>32</v>
@@ -46297,11 +45297,8 @@
       <c r="AF393" s="1">
         <v>2</v>
       </c>
-      <c r="AG393" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="394" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>365</v>
       </c>
@@ -46395,13 +45392,10 @@
       <c r="AF394" s="1">
         <v>2</v>
       </c>
-      <c r="AG394" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="395" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>32</v>
@@ -46493,11 +45487,8 @@
       <c r="AF395" s="1">
         <v>2</v>
       </c>
-      <c r="AG395" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="396" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>299</v>
       </c>
@@ -46580,6 +45571,10 @@
       <c r="AB396" s="1">
         <v>32</v>
       </c>
+      <c r="AC396" s="1">
+        <f>800+(1.29*F396)</f>
+        <v>4737.08</v>
+      </c>
       <c r="AD396" s="1" t="s">
         <v>34</v>
       </c>
@@ -46589,11 +45584,8 @@
       <c r="AF396" s="1">
         <v>2</v>
       </c>
-      <c r="AG396" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="397" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>367</v>
       </c>
@@ -46687,11 +45679,8 @@
       <c r="AF397" s="1">
         <v>2</v>
       </c>
-      <c r="AG397" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="398" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>93</v>
       </c>
@@ -46785,11 +45774,8 @@
       <c r="AF398" s="1">
         <v>2</v>
       </c>
-      <c r="AG398" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="399" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>426</v>
       </c>
@@ -46883,11 +45869,8 @@
       <c r="AF399" s="1">
         <v>3</v>
       </c>
-      <c r="AG399" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="400" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>496</v>
       </c>
@@ -46972,6 +45955,10 @@
       <c r="AB400" s="1">
         <v>22.8</v>
       </c>
+      <c r="AC400" s="1">
+        <f t="shared" ref="AC400:AC401" si="9">800+(1.29*F400)</f>
+        <v>2670.5</v>
+      </c>
       <c r="AD400" s="1" t="s">
         <v>34</v>
       </c>
@@ -46981,11 +45968,8 @@
       <c r="AF400" s="1">
         <v>2</v>
       </c>
-      <c r="AG400" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="401" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>305</v>
       </c>
@@ -47069,6 +46053,10 @@
         <f>377/12</f>
         <v>31.416666666666668</v>
       </c>
+      <c r="AC401" s="1">
+        <f t="shared" si="9"/>
+        <v>2655.02</v>
+      </c>
       <c r="AD401" s="1" t="s">
         <v>35</v>
       </c>
@@ -47078,11 +46066,8 @@
       <c r="AF401" s="1">
         <v>2</v>
       </c>
-      <c r="AG401" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="402" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>376</v>
       </c>
@@ -47176,11 +46161,8 @@
       <c r="AF402" s="1">
         <v>2</v>
       </c>
-      <c r="AG402" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="403" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>306</v>
       </c>
@@ -47263,6 +46245,10 @@
       <c r="AB403" s="1">
         <v>31</v>
       </c>
+      <c r="AC403" s="1">
+        <f>800+(1.29*F403)</f>
+        <v>2655.02</v>
+      </c>
       <c r="AD403" s="1" t="s">
         <v>35</v>
       </c>
@@ -47272,11 +46258,8 @@
       <c r="AF403" s="1">
         <v>2</v>
       </c>
-      <c r="AG403" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="404" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="4" t="s">
         <v>145</v>
       </c>
@@ -47371,13 +46354,10 @@
       <c r="AF404" s="4">
         <v>2</v>
       </c>
-      <c r="AG404" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="405" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="4" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B405" s="1" t="s">
         <v>32</v>
@@ -47470,11 +46450,8 @@
       <c r="AF405" s="4">
         <v>2</v>
       </c>
-      <c r="AG405" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="406" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="4" t="s">
         <v>136</v>
       </c>
@@ -47569,13 +46546,10 @@
       <c r="AF406" s="4">
         <v>2</v>
       </c>
-      <c r="AG406" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="407" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="4" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>32</v>
@@ -47668,11 +46642,8 @@
       <c r="AF407" s="4">
         <v>2</v>
       </c>
-      <c r="AG407" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="408" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>143</v>
       </c>
@@ -47766,11 +46737,8 @@
       <c r="AF408" s="1">
         <v>2</v>
       </c>
-      <c r="AG408" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="409" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>534</v>
       </c>
@@ -47864,11 +46832,8 @@
       <c r="AF409" s="1">
         <v>2</v>
       </c>
-      <c r="AG409" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="410" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>111</v>
       </c>
@@ -47962,11 +46927,8 @@
       <c r="AF410" s="1">
         <v>2</v>
       </c>
-      <c r="AG410" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="411" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>359</v>
       </c>
@@ -48060,11 +47022,8 @@
       <c r="AF411" s="1">
         <v>2</v>
       </c>
-      <c r="AG411" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="412" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>399</v>
       </c>
@@ -48158,11 +47117,8 @@
       <c r="AF412" s="1">
         <v>2</v>
       </c>
-      <c r="AG412" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="413" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>554</v>
       </c>
@@ -48257,11 +47213,8 @@
       <c r="AF413" s="1">
         <v>3</v>
       </c>
-      <c r="AG413" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="414" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>555</v>
       </c>
@@ -48356,11 +47309,8 @@
       <c r="AF414" s="1">
         <v>3</v>
       </c>
-      <c r="AG414" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="415" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>458</v>
       </c>
@@ -48455,11 +47405,8 @@
       <c r="AF415" s="1">
         <v>3</v>
       </c>
-      <c r="AG415" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="416" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>459</v>
       </c>
@@ -48555,11 +47502,8 @@
       <c r="AF416" s="1">
         <v>3</v>
       </c>
-      <c r="AG416" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="417" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>550</v>
       </c>
@@ -48654,11 +47598,8 @@
       <c r="AF417" s="1">
         <v>3</v>
       </c>
-      <c r="AG417" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="418" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>551</v>
       </c>
@@ -48753,11 +47694,8 @@
       <c r="AF418" s="1">
         <v>3</v>
       </c>
-      <c r="AG418" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="419" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>460</v>
       </c>
@@ -48852,11 +47790,8 @@
       <c r="AF419" s="1">
         <v>2</v>
       </c>
-      <c r="AG419" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="420" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>461</v>
       </c>
@@ -48952,11 +47887,8 @@
       <c r="AF420" s="1">
         <v>2</v>
       </c>
-      <c r="AG420" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="421" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>501</v>
       </c>
@@ -49041,6 +47973,10 @@
       <c r="AB421" s="1">
         <v>25</v>
       </c>
+      <c r="AC421" s="1">
+        <f>800+(1.29*F421)</f>
+        <v>2737.58</v>
+      </c>
       <c r="AD421" s="1" t="s">
         <v>34</v>
       </c>
@@ -49050,11 +47986,8 @@
       <c r="AF421" s="1">
         <v>2</v>
       </c>
-      <c r="AG421" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="422" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="4" t="s">
         <v>177</v>
       </c>
@@ -49149,13 +48082,10 @@
       <c r="AF422" s="4">
         <v>2</v>
       </c>
-      <c r="AG422" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="423" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="4" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B423" s="1" t="s">
         <v>32</v>
@@ -49248,11 +48178,8 @@
       <c r="AF423" s="4">
         <v>2</v>
       </c>
-      <c r="AG423" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="424" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>285</v>
       </c>
@@ -49335,6 +48262,10 @@
       <c r="AB424" s="1">
         <v>19</v>
       </c>
+      <c r="AC424" s="1">
+        <f>800+(1.29*F424)</f>
+        <v>2581.4899999999998</v>
+      </c>
       <c r="AD424" s="1" t="s">
         <v>34</v>
       </c>
@@ -49344,11 +48275,8 @@
       <c r="AF424" s="1">
         <v>2</v>
       </c>
-      <c r="AG424" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="425" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>424</v>
       </c>
@@ -49442,11 +48370,8 @@
       <c r="AF425" s="1">
         <v>2</v>
       </c>
-      <c r="AG425" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="426" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>456</v>
       </c>
@@ -49541,11 +48466,8 @@
       <c r="AF426" s="1">
         <v>3</v>
       </c>
-      <c r="AG426" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="427" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>457</v>
       </c>
@@ -49641,11 +48563,8 @@
       <c r="AF427" s="1">
         <v>3</v>
       </c>
-      <c r="AG427" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="428" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>108</v>
       </c>
@@ -49739,11 +48658,8 @@
       <c r="AF428" s="1">
         <v>2</v>
       </c>
-      <c r="AG428" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="429" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>514</v>
       </c>
@@ -49837,11 +48753,8 @@
       <c r="AF429" s="1">
         <v>2</v>
       </c>
-      <c r="AG429" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="430" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>95</v>
       </c>
@@ -49935,13 +48848,10 @@
       <c r="AF430" s="1">
         <v>2</v>
       </c>
-      <c r="AG430" s="1" t="s">
+    </row>
+    <row r="431" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
         <v>666</v>
-      </c>
-    </row>
-    <row r="431" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A431" s="1" t="s">
-        <v>671</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>32</v>
@@ -50033,11 +48943,8 @@
       <c r="AF431" s="1">
         <v>2</v>
       </c>
-      <c r="AG431" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="432" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="4" t="s">
         <v>153</v>
       </c>
@@ -50132,13 +49039,10 @@
       <c r="AF432" s="4">
         <v>2</v>
       </c>
-      <c r="AG432" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="433" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="4" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>32</v>
@@ -50231,11 +49135,8 @@
       <c r="AF433" s="4">
         <v>2</v>
       </c>
-      <c r="AG433" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="434" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>109</v>
       </c>
@@ -50329,11 +49230,8 @@
       <c r="AF434" s="1">
         <v>2</v>
       </c>
-      <c r="AG434" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="435" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>502</v>
       </c>
@@ -50418,6 +49316,10 @@
       <c r="AB435" s="1">
         <v>25</v>
       </c>
+      <c r="AC435" s="1">
+        <f>800+(1.29*F435)</f>
+        <v>2740.16</v>
+      </c>
       <c r="AD435" s="1" t="s">
         <v>34</v>
       </c>
@@ -50427,11 +49329,8 @@
       <c r="AF435" s="1">
         <v>2</v>
       </c>
-      <c r="AG435" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="436" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>465</v>
       </c>
@@ -50525,11 +49424,8 @@
       <c r="AF436" s="1">
         <v>2</v>
       </c>
-      <c r="AG436" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="437" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>432</v>
       </c>
@@ -50623,11 +49519,8 @@
       <c r="AF437" s="1">
         <v>2</v>
       </c>
-      <c r="AG437" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="438" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="4" t="s">
         <v>139</v>
       </c>
@@ -50722,13 +49615,10 @@
       <c r="AF438" s="4">
         <v>2</v>
       </c>
-      <c r="AG438" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="439" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="4" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>32</v>
@@ -50821,11 +49711,8 @@
       <c r="AF439" s="4">
         <v>2</v>
       </c>
-      <c r="AG439" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="440" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>169</v>
       </c>
@@ -50919,13 +49806,10 @@
       <c r="AF440" s="1">
         <v>2</v>
       </c>
-      <c r="AG440" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="441" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="B441" s="1" t="s">
         <v>32</v>
@@ -51017,11 +49901,8 @@
       <c r="AF441" s="1">
         <v>2</v>
       </c>
-      <c r="AG441" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="442" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>472</v>
       </c>
@@ -51115,11 +49996,8 @@
       <c r="AF442" s="1">
         <v>2</v>
       </c>
-      <c r="AG442" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="443" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="4" t="s">
         <v>481</v>
       </c>
@@ -51214,13 +50092,10 @@
       <c r="AF443" s="4">
         <v>2</v>
       </c>
-      <c r="AG443" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="444" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="4" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B444" s="1" t="s">
         <v>32</v>
@@ -51313,11 +50188,8 @@
       <c r="AF444" s="4">
         <v>2</v>
       </c>
-      <c r="AG444" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="445" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>296</v>
       </c>
@@ -51400,6 +50272,10 @@
       <c r="AB445" s="1">
         <v>22</v>
       </c>
+      <c r="AC445" s="1">
+        <f t="shared" ref="AC445:AC446" si="10">800+(1.29*F445)</f>
+        <v>2937.53</v>
+      </c>
       <c r="AD445" s="1" t="s">
         <v>34</v>
       </c>
@@ -51409,11 +50285,8 @@
       <c r="AF445" s="1">
         <v>2</v>
       </c>
-      <c r="AG445" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="446" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>301</v>
       </c>
@@ -51497,6 +50370,10 @@
         <f>143/6</f>
         <v>23.833333333333332</v>
       </c>
+      <c r="AC446" s="1">
+        <f t="shared" si="10"/>
+        <v>2516.9899999999998</v>
+      </c>
       <c r="AD446" s="1" t="s">
         <v>33</v>
       </c>
@@ -51506,11 +50383,8 @@
       <c r="AF446" s="1">
         <v>0</v>
       </c>
-      <c r="AG446" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="447" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>522</v>
       </c>
@@ -51604,11 +50478,8 @@
       <c r="AF447" s="1">
         <v>2</v>
       </c>
-      <c r="AG447" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="448" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>370</v>
       </c>
@@ -51702,11 +50573,8 @@
       <c r="AF448" s="1">
         <v>2</v>
       </c>
-      <c r="AG448" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="449" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="4" t="s">
         <v>185</v>
       </c>
@@ -51801,13 +50669,10 @@
       <c r="AF449" s="4">
         <v>2</v>
       </c>
-      <c r="AG449" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="450" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="4" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B450" s="1" t="s">
         <v>32</v>
@@ -51900,11 +50765,8 @@
       <c r="AF450" s="4">
         <v>2</v>
       </c>
-      <c r="AG450" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="451" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>525</v>
       </c>
@@ -51998,11 +50860,8 @@
       <c r="AF451" s="1">
         <v>2</v>
       </c>
-      <c r="AG451" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="452" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>532</v>
       </c>
@@ -52096,11 +50955,8 @@
       <c r="AF452" s="1">
         <v>2</v>
       </c>
-      <c r="AG452" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="453" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>542</v>
       </c>
@@ -52194,11 +51050,8 @@
       <c r="AF453" s="1">
         <v>2</v>
       </c>
-      <c r="AG453" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="454" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>439</v>
       </c>
@@ -52292,11 +51145,8 @@
       <c r="AF454" s="1">
         <v>2</v>
       </c>
-      <c r="AG454" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="455" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>304</v>
       </c>
@@ -52380,6 +51230,10 @@
         <f>293/12</f>
         <v>24.416666666666668</v>
       </c>
+      <c r="AC455" s="1">
+        <f>800+(1.29*F455)</f>
+        <v>3474.17</v>
+      </c>
       <c r="AD455" s="1" t="s">
         <v>34</v>
       </c>
@@ -52389,11 +51243,8 @@
       <c r="AF455" s="1">
         <v>2</v>
       </c>
-      <c r="AG455" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="456" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>487</v>
       </c>
@@ -52487,11 +51338,8 @@
       <c r="AF456" s="1">
         <v>2</v>
       </c>
-      <c r="AG456" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="457" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>182</v>
       </c>
@@ -52585,11 +51433,8 @@
       <c r="AF457" s="1">
         <v>2</v>
       </c>
-      <c r="AG457" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="458" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>309</v>
       </c>
@@ -52671,6 +51516,10 @@
       <c r="AB458" s="1">
         <v>25</v>
       </c>
+      <c r="AC458" s="1">
+        <f>800+(1.29*F458)</f>
+        <v>3743.78</v>
+      </c>
       <c r="AD458" s="1" t="s">
         <v>34</v>
       </c>
@@ -52680,11 +51529,8 @@
       <c r="AF458" s="1">
         <v>2</v>
       </c>
-      <c r="AG458" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="459" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>388</v>
       </c>
@@ -52778,11 +51624,8 @@
       <c r="AF459" s="1">
         <v>2</v>
       </c>
-      <c r="AG459" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="460" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>386</v>
       </c>
@@ -52876,11 +51719,8 @@
       <c r="AF460" s="1">
         <v>2</v>
       </c>
-      <c r="AG460" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="461" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>401</v>
       </c>
@@ -52974,11 +51814,8 @@
       <c r="AF461" s="1">
         <v>2</v>
       </c>
-      <c r="AG461" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="462" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>298</v>
       </c>
@@ -53061,6 +51898,10 @@
       <c r="AB462" s="1">
         <v>24</v>
       </c>
+      <c r="AC462" s="1">
+        <f t="shared" ref="AC462:AC463" si="11">800+(1.29*F462)</f>
+        <v>3370.9700000000003</v>
+      </c>
       <c r="AD462" s="1" t="s">
         <v>34</v>
       </c>
@@ -53070,11 +51911,8 @@
       <c r="AF462" s="1">
         <v>2</v>
       </c>
-      <c r="AG462" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="463" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>300</v>
       </c>
@@ -53158,6 +51996,10 @@
         <f>163/6</f>
         <v>27.166666666666668</v>
       </c>
+      <c r="AC463" s="1">
+        <f t="shared" si="11"/>
+        <v>3479.33</v>
+      </c>
       <c r="AD463" s="1" t="s">
         <v>34</v>
       </c>
@@ -53167,11 +52009,8 @@
       <c r="AF463" s="1">
         <v>2</v>
       </c>
-      <c r="AG463" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="464" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>38</v>
       </c>
@@ -53265,11 +52104,8 @@
       <c r="AF464" s="1">
         <v>2</v>
       </c>
-      <c r="AG464" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="465" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="4" t="s">
         <v>482</v>
       </c>
@@ -53364,13 +52200,10 @@
       <c r="AF465" s="4">
         <v>3</v>
       </c>
-      <c r="AG465" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="466" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="4" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B466" s="1" t="s">
         <v>32</v>
@@ -53463,11 +52296,8 @@
       <c r="AF466" s="4">
         <v>3</v>
       </c>
-      <c r="AG466" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="467" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>434</v>
       </c>
@@ -53561,11 +52391,8 @@
       <c r="AF467" s="1">
         <v>2</v>
       </c>
-      <c r="AG467" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="468" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>311</v>
       </c>
@@ -53648,6 +52475,10 @@
       <c r="AB468" s="1">
         <v>28</v>
       </c>
+      <c r="AC468" s="1">
+        <f>800+(1.29*F468)</f>
+        <v>3772.16</v>
+      </c>
       <c r="AD468" s="1" t="s">
         <v>34</v>
       </c>
@@ -53657,11 +52488,8 @@
       <c r="AF468" s="1">
         <v>2</v>
       </c>
-      <c r="AG468" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="469" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="4" t="s">
         <v>480</v>
       </c>
@@ -53756,13 +52584,10 @@
       <c r="AF469" s="4">
         <v>2</v>
       </c>
-      <c r="AG469" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="470" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="4" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B470" s="1" t="s">
         <v>32</v>
@@ -53855,11 +52680,8 @@
       <c r="AF470" s="4">
         <v>2</v>
       </c>
-      <c r="AG470" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="471" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="4" t="s">
         <v>171</v>
       </c>
@@ -53954,13 +52776,10 @@
       <c r="AF471" s="4">
         <v>2</v>
       </c>
-      <c r="AG471" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="472" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="4" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>32</v>
@@ -54053,13 +52872,10 @@
       <c r="AF472" s="4">
         <v>2</v>
       </c>
-      <c r="AG472" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="473" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>32</v>
@@ -54151,11 +52967,8 @@
       <c r="AF473" s="1">
         <v>2</v>
       </c>
-      <c r="AG473" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="474" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>94</v>
       </c>
@@ -54249,11 +53062,8 @@
       <c r="AF474" s="1">
         <v>2</v>
       </c>
-      <c r="AG474" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="475" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>544</v>
       </c>
@@ -54347,11 +53157,8 @@
       <c r="AF475" s="1">
         <v>2</v>
       </c>
-      <c r="AG475" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="476" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>416</v>
       </c>
@@ -54445,11 +53252,8 @@
       <c r="AF476" s="1">
         <v>2</v>
       </c>
-      <c r="AG476" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="477" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>297</v>
       </c>
@@ -54532,6 +53336,10 @@
       <c r="AB477" s="1">
         <v>26</v>
       </c>
+      <c r="AC477" s="1">
+        <f>800+(1.29*F477)</f>
+        <v>3364.52</v>
+      </c>
       <c r="AD477" s="1" t="s">
         <v>34</v>
       </c>
@@ -54541,11 +53349,8 @@
       <c r="AF477" s="1">
         <v>2</v>
       </c>
-      <c r="AG477" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="478" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="4" t="s">
         <v>485</v>
       </c>
@@ -54640,13 +53445,10 @@
       <c r="AF478" s="4">
         <v>2</v>
       </c>
-      <c r="AG478" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="479" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="4" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>32</v>
@@ -54739,11 +53541,8 @@
       <c r="AF479" s="4">
         <v>2</v>
       </c>
-      <c r="AG479" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="480" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="4" t="s">
         <v>478</v>
       </c>
@@ -54838,13 +53637,10 @@
       <c r="AF480" s="4">
         <v>2</v>
       </c>
-      <c r="AG480" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="481" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="4" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B481" s="1" t="s">
         <v>32</v>
@@ -54937,11 +53733,8 @@
       <c r="AF481" s="4">
         <v>2</v>
       </c>
-      <c r="AG481" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="482" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>390</v>
       </c>
@@ -55035,11 +53828,8 @@
       <c r="AF482" s="1">
         <v>2</v>
       </c>
-      <c r="AG482" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="483" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="4" t="s">
         <v>468</v>
       </c>
@@ -55134,13 +53924,10 @@
       <c r="AF483" s="4">
         <v>2</v>
       </c>
-      <c r="AG483" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="484" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="4" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B484" s="1" t="s">
         <v>32</v>
@@ -55233,11 +54020,8 @@
       <c r="AF484" s="4">
         <v>3</v>
       </c>
-      <c r="AG484" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="485" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>436</v>
       </c>
@@ -55331,11 +54115,8 @@
       <c r="AF485" s="1">
         <v>2</v>
       </c>
-      <c r="AG485" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="486" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="4" t="s">
         <v>479</v>
       </c>
@@ -55430,13 +54211,10 @@
       <c r="AF486" s="4">
         <v>2</v>
       </c>
-      <c r="AG486" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="487" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="4" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B487" s="1" t="s">
         <v>32</v>
@@ -55529,11 +54307,8 @@
       <c r="AF487" s="4">
         <v>2</v>
       </c>
-      <c r="AG487" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="488" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>512</v>
       </c>
@@ -55627,11 +54402,8 @@
       <c r="AF488" s="1">
         <v>2</v>
       </c>
-      <c r="AG488" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="489" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>393</v>
       </c>
@@ -55725,11 +54497,8 @@
       <c r="AF489" s="1">
         <v>2</v>
       </c>
-      <c r="AG489" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="490" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>524</v>
       </c>
@@ -55823,11 +54592,8 @@
       <c r="AF490" s="1">
         <v>2</v>
       </c>
-      <c r="AG490" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="491" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>158</v>
       </c>
@@ -55921,11 +54687,8 @@
       <c r="AF491" s="1">
         <v>2</v>
       </c>
-      <c r="AG491" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="492" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>178</v>
       </c>
@@ -56019,11 +54782,8 @@
       <c r="AF492" s="1">
         <v>2</v>
       </c>
-      <c r="AG492" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="493" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>450</v>
       </c>
@@ -56109,6 +54869,10 @@
       <c r="AB493" s="1">
         <v>23</v>
       </c>
+      <c r="AC493" s="1">
+        <f>800+(1.29*F493)</f>
+        <v>4574.54</v>
+      </c>
       <c r="AD493" s="1" t="s">
         <v>34</v>
       </c>
@@ -56118,11 +54882,8 @@
       <c r="AF493" s="1">
         <v>2</v>
       </c>
-      <c r="AG493" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="494" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>427</v>
       </c>
@@ -56216,11 +54977,8 @@
       <c r="AF494" s="1">
         <v>2</v>
       </c>
-      <c r="AG494" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="495" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>293</v>
       </c>
@@ -56302,6 +55060,10 @@
       <c r="AB495" s="1">
         <v>19.332999999999998</v>
       </c>
+      <c r="AC495" s="1">
+        <f>800+(1.29*F495)</f>
+        <v>2200.94</v>
+      </c>
       <c r="AD495" s="1" t="s">
         <v>33</v>
       </c>
@@ -56311,13 +55073,10 @@
       <c r="AF495" s="1">
         <v>0</v>
       </c>
-      <c r="AG495" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="496" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B496" s="1" t="s">
         <v>32</v>
@@ -56409,11 +55168,8 @@
       <c r="AF496" s="1">
         <v>2</v>
       </c>
-      <c r="AG496" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="497" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>552</v>
       </c>
@@ -56507,11 +55263,8 @@
       <c r="AF497" s="1">
         <v>3</v>
       </c>
-      <c r="AG497" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="498" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>553</v>
       </c>
@@ -56605,11 +55358,8 @@
       <c r="AF498" s="1">
         <v>3</v>
       </c>
-      <c r="AG498" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="499" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>294</v>
       </c>
@@ -56692,6 +55442,10 @@
       <c r="AB499" s="1">
         <v>26</v>
       </c>
+      <c r="AC499" s="1">
+        <f>800+(1.29*F499)</f>
+        <v>2408.63</v>
+      </c>
       <c r="AD499" s="1" t="s">
         <v>35</v>
       </c>
@@ -56701,11 +55455,8 @@
       <c r="AF499" s="1">
         <v>2</v>
       </c>
-      <c r="AG499" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="500" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>125</v>
       </c>
@@ -56799,11 +55550,8 @@
       <c r="AF500" s="1">
         <v>2</v>
       </c>
-      <c r="AG500" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="501" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>262</v>
       </c>
@@ -56885,6 +55633,10 @@
       <c r="AB501" s="1">
         <v>18</v>
       </c>
+      <c r="AC501" s="1">
+        <f>800+(1.29*F501)</f>
+        <v>2389.2799999999997</v>
+      </c>
       <c r="AD501" s="1" t="s">
         <v>34</v>
       </c>
@@ -56894,11 +55646,8 @@
       <c r="AF501" s="1">
         <v>2</v>
       </c>
-      <c r="AG501" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="502" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>368</v>
       </c>
@@ -56992,11 +55741,8 @@
       <c r="AF502" s="1">
         <v>2</v>
       </c>
-      <c r="AG502" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="503" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="9" t="s">
         <v>133</v>
       </c>
@@ -57090,11 +55836,8 @@
       <c r="AF503" s="1">
         <v>2</v>
       </c>
-      <c r="AG503" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="504" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>419</v>
       </c>
@@ -57188,11 +55931,8 @@
       <c r="AF504" s="1">
         <v>2</v>
       </c>
-      <c r="AG504" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="505" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>449</v>
       </c>
@@ -57274,6 +56014,10 @@
       <c r="AB505" s="1">
         <v>23</v>
       </c>
+      <c r="AC505" s="1">
+        <f>800+(1.29*F505)</f>
+        <v>4566.8</v>
+      </c>
       <c r="AD505" s="1" t="s">
         <v>34</v>
       </c>
@@ -57283,11 +56027,8 @@
       <c r="AF505" s="1">
         <v>3</v>
       </c>
-      <c r="AG505" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="506" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>454</v>
       </c>
@@ -57381,11 +56122,8 @@
       <c r="AF506" s="1">
         <v>3</v>
       </c>
-      <c r="AG506" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="507" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>308</v>
       </c>
@@ -57468,6 +56206,10 @@
       <c r="AB507" s="1">
         <v>19</v>
       </c>
+      <c r="AC507" s="1">
+        <f>800+(1.29*F507)</f>
+        <v>3639.29</v>
+      </c>
       <c r="AD507" s="1" t="s">
         <v>34</v>
       </c>
@@ -57477,11 +56219,8 @@
       <c r="AF507" s="1">
         <v>2</v>
       </c>
-      <c r="AG507" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="508" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>344</v>
       </c>
@@ -57575,11 +56314,8 @@
       <c r="AF508" s="1">
         <v>2</v>
       </c>
-      <c r="AG508" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="509" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>345</v>
       </c>
@@ -57673,11 +56409,8 @@
       <c r="AF509" s="1">
         <v>2</v>
       </c>
-      <c r="AG509" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="510" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>303</v>
       </c>
@@ -57760,6 +56493,10 @@
       <c r="AB510" s="1">
         <v>20</v>
       </c>
+      <c r="AC510" s="1">
+        <f>800+(1.29*F510)</f>
+        <v>3592.85</v>
+      </c>
       <c r="AD510" s="1" t="s">
         <v>34</v>
       </c>
@@ -57769,11 +56506,8 @@
       <c r="AF510" s="1">
         <v>2</v>
       </c>
-      <c r="AG510" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="511" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>387</v>
       </c>
@@ -57867,11 +56601,8 @@
       <c r="AF511" s="1">
         <v>2</v>
       </c>
-      <c r="AG511" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="512" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>556</v>
       </c>
@@ -57966,11 +56697,8 @@
       <c r="AF512" s="1">
         <v>3</v>
       </c>
-      <c r="AG512" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="513" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="4" t="s">
         <v>483</v>
       </c>
@@ -58065,13 +56793,10 @@
       <c r="AF513" s="4">
         <v>2</v>
       </c>
-      <c r="AG513" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="514" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="4" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B514" s="1" t="s">
         <v>32</v>
@@ -58164,11 +56889,8 @@
       <c r="AF514" s="4">
         <v>2</v>
       </c>
-      <c r="AG514" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="515" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="4" t="s">
         <v>490</v>
       </c>
@@ -58263,13 +56985,10 @@
       <c r="AF515" s="4">
         <v>3</v>
       </c>
-      <c r="AG515" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="516" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="4" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B516" s="1" t="s">
         <v>32</v>
@@ -58362,11 +57081,8 @@
       <c r="AF516" s="4">
         <v>3</v>
       </c>
-      <c r="AG516" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="517" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>100</v>
       </c>
@@ -58460,11 +57176,8 @@
       <c r="AF517" s="1">
         <v>2</v>
       </c>
-      <c r="AG517" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="518" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="4" t="s">
         <v>165</v>
       </c>
@@ -58559,13 +57272,10 @@
       <c r="AF518" s="4">
         <v>2</v>
       </c>
-      <c r="AG518" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="519" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="4" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B519" s="1" t="s">
         <v>32</v>
@@ -58658,11 +57368,8 @@
       <c r="AF519" s="4">
         <v>2</v>
       </c>
-      <c r="AG519" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="520" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>414</v>
       </c>
@@ -58756,11 +57463,8 @@
       <c r="AF520" s="1">
         <v>2</v>
       </c>
-      <c r="AG520" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="521" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>418</v>
       </c>
@@ -58854,11 +57558,8 @@
       <c r="AF521" s="1">
         <v>2</v>
       </c>
-      <c r="AG521" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="522" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>539</v>
       </c>
@@ -58952,11 +57653,8 @@
       <c r="AF522" s="1">
         <v>2</v>
       </c>
-      <c r="AG522" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="523" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>537</v>
       </c>
@@ -59050,11 +57748,8 @@
       <c r="AF523" s="1">
         <v>2</v>
       </c>
-      <c r="AG523" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="524" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>442</v>
       </c>
@@ -59148,11 +57843,8 @@
       <c r="AF524" s="1">
         <v>2</v>
       </c>
-      <c r="AG524" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="525" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>326</v>
       </c>
@@ -59246,11 +57938,8 @@
       <c r="AF525" s="1">
         <v>2</v>
       </c>
-      <c r="AG525" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="526" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>455</v>
       </c>
@@ -59345,11 +58034,8 @@
       <c r="AF526" s="1">
         <v>2</v>
       </c>
-      <c r="AG526" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="527" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>287</v>
       </c>
@@ -59432,6 +58118,10 @@
       <c r="AB527" s="1">
         <v>19</v>
       </c>
+      <c r="AC527" s="1">
+        <f>800+(1.29*F527)</f>
+        <v>2603.42</v>
+      </c>
       <c r="AD527" s="1" t="s">
         <v>34</v>
       </c>
@@ -59441,11 +58131,8 @@
       <c r="AF527" s="1">
         <v>2</v>
       </c>
-      <c r="AG527" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="528" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>445</v>
       </c>
@@ -59539,11 +58226,8 @@
       <c r="AF528" s="1">
         <v>2</v>
       </c>
-      <c r="AG528" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="529" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>453</v>
       </c>
@@ -59638,13 +58322,10 @@
       <c r="AF529" s="1">
         <v>3</v>
       </c>
-      <c r="AG529" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="530" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B530" s="1" t="s">
         <v>32</v>
@@ -59737,11 +58418,8 @@
       <c r="AF530" s="1">
         <v>3</v>
       </c>
-      <c r="AG530" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="531" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>538</v>
       </c>
@@ -59835,11 +58513,8 @@
       <c r="AF531" s="1">
         <v>2</v>
       </c>
-      <c r="AG531" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="532" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>541</v>
       </c>
@@ -59933,11 +58608,8 @@
       <c r="AF532" s="1">
         <v>2</v>
       </c>
-      <c r="AG532" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="533" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>295</v>
       </c>
@@ -60020,6 +58692,10 @@
       <c r="AB533" s="1">
         <v>24</v>
       </c>
+      <c r="AC533" s="1">
+        <f>800+(1.29*F533)</f>
+        <v>2762.09</v>
+      </c>
       <c r="AD533" s="1" t="s">
         <v>34</v>
       </c>
@@ -60029,11 +58705,8 @@
       <c r="AF533" s="1">
         <v>2</v>
       </c>
-      <c r="AG533" s="1" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="534" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>334</v>
       </c>
@@ -60127,11 +58800,8 @@
       <c r="AF534" s="1">
         <v>2</v>
       </c>
-      <c r="AG534" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="535" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>540</v>
       </c>
@@ -60225,13 +58895,10 @@
       <c r="AF535" s="1">
         <v>2</v>
       </c>
-      <c r="AG535" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="536" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B536" s="1" t="s">
         <v>76</v>
@@ -60323,11 +58990,8 @@
       <c r="AF536" s="1">
         <v>0</v>
       </c>
-      <c r="AG536" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="537" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>60</v>
       </c>
@@ -60421,11 +59085,8 @@
       <c r="AF537" s="1">
         <v>2</v>
       </c>
-      <c r="AG537" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="538" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="4" t="s">
         <v>120</v>
       </c>
@@ -60520,13 +59181,10 @@
       <c r="AF538" s="4">
         <v>2</v>
       </c>
-      <c r="AG538" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="539" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="4" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B539" s="1" t="s">
         <v>32</v>
@@ -60619,13 +59277,10 @@
       <c r="AF539" s="4">
         <v>2</v>
       </c>
-      <c r="AG539" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="540" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B540" s="1" t="s">
         <v>32</v>
@@ -60717,11 +59372,8 @@
       <c r="AF540" s="1">
         <v>2</v>
       </c>
-      <c r="AG540" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="541" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>503</v>
       </c>
@@ -60806,6 +59458,10 @@
       <c r="AB541" s="1">
         <v>22</v>
       </c>
+      <c r="AC541" s="1">
+        <f>800+(1.29*F541)</f>
+        <v>2746.61</v>
+      </c>
       <c r="AD541" s="1" t="s">
         <v>34</v>
       </c>
@@ -60815,11 +59471,8 @@
       <c r="AF541" s="1">
         <v>2</v>
       </c>
-      <c r="AG541" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="542" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>352</v>
       </c>
@@ -60913,11 +59566,8 @@
       <c r="AF542" s="1">
         <v>2</v>
       </c>
-      <c r="AG542" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="543" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>173</v>
       </c>
@@ -61011,11 +59661,8 @@
       <c r="AF543" s="1">
         <v>2</v>
       </c>
-      <c r="AG543" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="544" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>405</v>
       </c>
@@ -61109,11 +59756,8 @@
       <c r="AF544" s="1">
         <v>2</v>
       </c>
-      <c r="AG544" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="545" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="4" t="s">
         <v>179</v>
       </c>
@@ -61208,13 +59852,10 @@
       <c r="AF545" s="4">
         <v>2</v>
       </c>
-      <c r="AG545" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="546" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="4" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B546" s="1" t="s">
         <v>32</v>
@@ -61307,11 +59948,8 @@
       <c r="AF546" s="4">
         <v>2</v>
       </c>
-      <c r="AG546" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="547" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>429</v>
       </c>
@@ -61405,11 +60043,8 @@
       <c r="AF547" s="1">
         <v>2</v>
       </c>
-      <c r="AG547" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="548" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>57</v>
       </c>
@@ -61503,11 +60138,8 @@
       <c r="AF548" s="1">
         <v>0</v>
       </c>
-      <c r="AG548" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="549" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>491</v>
       </c>
@@ -61601,11 +60233,8 @@
       <c r="AF549" s="1">
         <v>0</v>
       </c>
-      <c r="AG549" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="550" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>332</v>
       </c>
@@ -61699,11 +60328,8 @@
       <c r="AF550" s="1">
         <v>2</v>
       </c>
-      <c r="AG550" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="551" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
         <v>347</v>
       </c>
@@ -61797,11 +60423,8 @@
       <c r="AF551" s="1">
         <v>2</v>
       </c>
-      <c r="AG551" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="552" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
         <v>364</v>
       </c>
@@ -61895,11 +60518,8 @@
       <c r="AF552" s="1">
         <v>2</v>
       </c>
-      <c r="AG552" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="553" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>546</v>
       </c>
@@ -61993,11 +60613,8 @@
       <c r="AF553" s="1">
         <v>2</v>
       </c>
-      <c r="AG553" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
-    <row r="554" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>492</v>
       </c>
@@ -62091,22 +60708,19 @@
       <c r="AF554" s="1">
         <v>0</v>
       </c>
-      <c r="AG554" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AG554" xr:uid="{00000000-0001-0000-0800-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG554">
+  <autoFilter ref="A1:AF554" xr:uid="{00000000-0001-0000-0800-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF554">
       <sortCondition ref="A1:A554"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A75:AF210">
+  <conditionalFormatting sqref="A75:AF79 A81:AF98 A80:AB80 AD80:AF80 A100:AF110 A99:AB99 AD99:AF99 A112:AF117 A111:AB111 AD111:AF111 A119:AF123 A118:AB118 AD118:AF118 A126:AF133 A124:AB125 AD124:AF125 A135:AF160 A134:AB134 AD134:AF134 A162:AF164 A161:AB161 AD161:AF161 A166:AF166 A165:AB165 AD165:AF165 A168:AF171 A167:AB167 AD167:AF167 A173:AF210 A172:AB172 AD172:AF172">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC74:AC210">
+  <conditionalFormatting sqref="AC74:AC79 AC81:AC98 AC100:AC110 AC112:AC117 AC119:AC123 AC126:AC133 AC135:AC160 AC162:AC164 AC166 AC168:AC171 AC173:AC210">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>400</formula>
     </cfRule>
